--- a/五金/五金账单20200506.xlsx
+++ b/五金/五金账单20200506.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMINI~1\AppData\Local\Temp\baiduyunguanjia\onlinedit\cache\23b0aac7d87593ed118ed48a3ac7c1c2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\33\phg\五金\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="收入" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="308">
   <si>
     <t>样品快递费（扬州）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1633,55 +1633,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0640夹头32,35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YAMAWA丝攻10x1挤压2颗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rc1/8挤压丝攻2颗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泵75w4个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精诚YB25夹头φ20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两轴气缸，一轴气缸加配件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12螺杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50x8材料4片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5钻头5包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水，生胶带，螺丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YB-25夹头25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁座，万向管带开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车刀30把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>台湾TOSG大宝挤压丝攻（二哥）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0640夹头32,35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YAMAWA丝攻10x1挤压2颗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rc1/8挤压丝攻2颗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水泵75w4个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精诚YB25夹头φ20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两轴气缸，一轴气缸加配件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12螺杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50x8材料4片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5钻头5包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水，生胶带，螺丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YB-25夹头25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁座，万向管带开关</t>
+    <t>水，生胶带，螺丝（二哥）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1942,7 +1950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2030,6 +2038,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2331,13 +2342,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2477,10 +2488,10 @@
       <c r="F8" s="35"/>
     </row>
     <row r="9" spans="1:7" ht="25.5">
-      <c r="A9" s="49">
+      <c r="A9" s="50">
         <v>20200331</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="37">
         <f>SUM($B$2:B9)</f>
         <v>90403</v>
@@ -2808,7 +2819,7 @@
     <row r="24" spans="1:6">
       <c r="A24">
         <f>总支出!A47</f>
-        <v>0</v>
+        <v>20200506</v>
       </c>
       <c r="C24" s="44">
         <f>SUM($B$2:B24)</f>
@@ -2820,12 +2831,424 @@
       </c>
       <c r="E24" s="44">
         <f>总支出!B47</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F24" s="41">
         <f>D24-总支出!C47</f>
-        <v>13407.970000000001</v>
-      </c>
+        <v>13388.970000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <f>总支出!A48</f>
+        <v>20200504</v>
+      </c>
+      <c r="C25" s="44">
+        <f>SUM($B$2:B25)</f>
+        <v>110403</v>
+      </c>
+      <c r="D25" s="44">
+        <f>SUM($B$10:B25)</f>
+        <v>20000</v>
+      </c>
+      <c r="E25" s="44">
+        <f>总支出!B48</f>
+        <v>45</v>
+      </c>
+      <c r="F25" s="49">
+        <f>D25-总支出!C48</f>
+        <v>13343.970000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <f>总支出!A49</f>
+        <v>20200504</v>
+      </c>
+      <c r="C26" s="44">
+        <f>SUM($B$2:B26)</f>
+        <v>110403</v>
+      </c>
+      <c r="D26" s="44">
+        <f>SUM($B$10:B26)</f>
+        <v>20000</v>
+      </c>
+      <c r="E26" s="44">
+        <f>总支出!B49</f>
+        <v>124</v>
+      </c>
+      <c r="F26" s="49">
+        <f>D26-总支出!C49</f>
+        <v>13219.970000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <f>总支出!A50</f>
+        <v>20200504</v>
+      </c>
+      <c r="C27" s="44">
+        <f>SUM($B$2:B27)</f>
+        <v>110403</v>
+      </c>
+      <c r="D27" s="44">
+        <f>SUM($B$10:B27)</f>
+        <v>20000</v>
+      </c>
+      <c r="E27" s="44">
+        <f>总支出!B50</f>
+        <v>96</v>
+      </c>
+      <c r="F27" s="49">
+        <f>D27-总支出!C50</f>
+        <v>13123.970000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <f>总支出!A51</f>
+        <v>20200506</v>
+      </c>
+      <c r="C28" s="44">
+        <f>SUM($B$2:B28)</f>
+        <v>110403</v>
+      </c>
+      <c r="D28" s="44">
+        <f>SUM($B$10:B28)</f>
+        <v>20000</v>
+      </c>
+      <c r="E28" s="44">
+        <f>总支出!B51</f>
+        <v>161.19999999999999</v>
+      </c>
+      <c r="F28" s="49">
+        <f>D28-总支出!C51</f>
+        <v>12962.77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <f>总支出!A52</f>
+        <v>20200505</v>
+      </c>
+      <c r="C29" s="44">
+        <f>SUM($B$2:B29)</f>
+        <v>110403</v>
+      </c>
+      <c r="D29" s="44">
+        <f>SUM($B$10:B29)</f>
+        <v>20000</v>
+      </c>
+      <c r="E29" s="44">
+        <f>总支出!B52</f>
+        <v>75</v>
+      </c>
+      <c r="F29" s="49">
+        <f>D29-总支出!C52</f>
+        <v>12887.77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <f>总支出!A53</f>
+        <v>20200505</v>
+      </c>
+      <c r="C30" s="44">
+        <f>SUM($B$2:B30)</f>
+        <v>110403</v>
+      </c>
+      <c r="D30" s="44">
+        <f>SUM($B$10:B30)</f>
+        <v>20000</v>
+      </c>
+      <c r="E30" s="44">
+        <f>总支出!B53</f>
+        <v>118</v>
+      </c>
+      <c r="F30" s="49">
+        <f>D30-总支出!C53</f>
+        <v>12769.77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <f>总支出!A54</f>
+        <v>20200504</v>
+      </c>
+      <c r="C31" s="44">
+        <f>SUM($B$2:B31)</f>
+        <v>110403</v>
+      </c>
+      <c r="D31" s="44">
+        <f>SUM($B$10:B31)</f>
+        <v>20000</v>
+      </c>
+      <c r="E31" s="44">
+        <f>总支出!B54</f>
+        <v>8</v>
+      </c>
+      <c r="F31" s="49">
+        <f>D31-总支出!C54</f>
+        <v>12761.77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <f>总支出!A55</f>
+        <v>20200504</v>
+      </c>
+      <c r="C32" s="44">
+        <f>SUM($B$2:B32)</f>
+        <v>110403</v>
+      </c>
+      <c r="D32" s="44">
+        <f>SUM($B$10:B32)</f>
+        <v>20000</v>
+      </c>
+      <c r="E32" s="44">
+        <f>总支出!B55</f>
+        <v>20</v>
+      </c>
+      <c r="F32" s="49">
+        <f>D32-总支出!C55</f>
+        <v>12741.77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <f>总支出!A56</f>
+        <v>20200504</v>
+      </c>
+      <c r="C33" s="44">
+        <f>SUM($B$2:B33)</f>
+        <v>110403</v>
+      </c>
+      <c r="D33" s="44">
+        <f>SUM($B$10:B33)</f>
+        <v>20000</v>
+      </c>
+      <c r="E33" s="44">
+        <f>总支出!B56</f>
+        <v>185</v>
+      </c>
+      <c r="F33" s="49">
+        <f>D33-总支出!C56</f>
+        <v>12556.77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <f>总支出!A57</f>
+        <v>20200506</v>
+      </c>
+      <c r="C34" s="44">
+        <f>SUM($B$2:B34)</f>
+        <v>110403</v>
+      </c>
+      <c r="D34" s="44">
+        <f>SUM($B$10:B34)</f>
+        <v>20000</v>
+      </c>
+      <c r="E34" s="44">
+        <f>总支出!B57</f>
+        <v>58</v>
+      </c>
+      <c r="F34" s="49">
+        <f>D34-总支出!C57</f>
+        <v>12498.77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <f>总支出!A58</f>
+        <v>20200506</v>
+      </c>
+      <c r="C35" s="44">
+        <f>SUM($B$2:B35)</f>
+        <v>110403</v>
+      </c>
+      <c r="D35" s="44">
+        <f>SUM($B$10:B35)</f>
+        <v>20000</v>
+      </c>
+      <c r="E35" s="44">
+        <f>总支出!B58</f>
+        <v>53.2</v>
+      </c>
+      <c r="F35" s="49">
+        <f>D35-总支出!C58</f>
+        <v>12445.57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <f>总支出!A59</f>
+        <v>20200506</v>
+      </c>
+      <c r="C36" s="44">
+        <f>SUM($B$2:B36)</f>
+        <v>110403</v>
+      </c>
+      <c r="D36" s="44">
+        <f>SUM($B$10:B36)</f>
+        <v>20000</v>
+      </c>
+      <c r="E36" s="44">
+        <f>总支出!B59</f>
+        <v>386</v>
+      </c>
+      <c r="F36" s="49">
+        <f>D36-总支出!C59</f>
+        <v>12059.57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <f>总支出!A60</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="44">
+        <f>SUM($B$2:B37)</f>
+        <v>110403</v>
+      </c>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44">
+        <f>总支出!B60</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="49">
+        <f>D37-总支出!C60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="C38" s="44">
+        <f>SUM($B$2:B38)</f>
+        <v>110403</v>
+      </c>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44">
+        <f>总支出!B61</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="49">
+        <f>D38-总支出!C61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="C39" s="44">
+        <f>SUM($B$2:B39)</f>
+        <v>110403</v>
+      </c>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44">
+        <f>总支出!B62</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="49">
+        <f>D39-总支出!C62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="C40" s="44">
+        <f>SUM($B$2:B40)</f>
+        <v>110403</v>
+      </c>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44">
+        <f>总支出!B63</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="49">
+        <f>D40-总支出!C63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="C41" s="44">
+        <f>SUM($B$2:B41)</f>
+        <v>110403</v>
+      </c>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44">
+        <f>总支出!B64</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="49">
+        <f>D41-总支出!C64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="D42" s="44"/>
+      <c r="E42" s="44">
+        <f>总支出!B65</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="49">
+        <f>D42-总支出!C65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="D43" s="44"/>
+      <c r="E43" s="44">
+        <f>总支出!B66</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="49">
+        <f>D43-总支出!C66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="D44" s="44"/>
+      <c r="E44" s="44">
+        <f>总支出!B67</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="49">
+        <f>D44-总支出!C67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="D45" s="44"/>
+      <c r="E45" s="44">
+        <f>总支出!B68</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="49">
+        <f>D45-总支出!C68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="D46" s="44"/>
+      <c r="E46" s="44">
+        <f>总支出!B69</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="49">
+        <f>D46-总支出!C69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="D47" s="44"/>
+      <c r="E47" s="44">
+        <f>总支出!B70</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="49">
+        <f>D47-总支出!C70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="D48" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2839,13 +3262,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3279,10 +3702,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="25.5">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="B26" s="50"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="34">
         <f>SUM($B$2:B26)</f>
         <v>54763</v>
@@ -3695,63 +4118,254 @@
         <v>13407.970000000001</v>
       </c>
       <c r="E46" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:6">
+      <c r="A47">
+        <v>20200506</v>
+      </c>
+      <c r="B47">
+        <v>19</v>
+      </c>
       <c r="C47">
         <f>SUM($B$27:B47)</f>
-        <v>6592.03</v>
+        <v>6611.03</v>
       </c>
       <c r="D47">
         <f>收入!F24</f>
-        <v>13407.970000000001</v>
+        <v>13388.970000000001</v>
+      </c>
+      <c r="E47" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:6">
+      <c r="A48">
+        <v>20200504</v>
+      </c>
+      <c r="B48">
+        <v>45</v>
+      </c>
       <c r="C48">
         <f>SUM($B$27:B48)</f>
-        <v>6592.03</v>
+        <v>6656.03</v>
       </c>
       <c r="D48">
         <f>收入!F25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4">
+        <v>13343.970000000001</v>
+      </c>
+      <c r="E48" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>20200504</v>
+      </c>
+      <c r="B49">
+        <v>124</v>
+      </c>
       <c r="C49">
         <f>SUM($B$27:B49)</f>
-        <v>6592.03</v>
+        <v>6780.03</v>
       </c>
       <c r="D49">
         <f>收入!F26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4">
+        <v>13219.970000000001</v>
+      </c>
+      <c r="E49" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>20200504</v>
+      </c>
+      <c r="B50">
+        <v>96</v>
+      </c>
       <c r="C50">
         <f>SUM($B$27:B50)</f>
-        <v>6592.03</v>
+        <v>6876.03</v>
       </c>
       <c r="D50">
         <f>收入!F27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4">
+        <v>13123.970000000001</v>
+      </c>
+      <c r="E50" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>20200506</v>
+      </c>
+      <c r="B51">
+        <v>161.19999999999999</v>
+      </c>
       <c r="C51">
         <f>SUM($B$27:B51)</f>
-        <v>6592.03</v>
+        <v>7037.23</v>
       </c>
       <c r="D51">
         <f>收入!F28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4">
+        <v>12962.77</v>
+      </c>
+      <c r="E51" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>20200505</v>
+      </c>
+      <c r="B52">
+        <v>75</v>
+      </c>
+      <c r="C52">
+        <f>SUM($B$27:B52)</f>
+        <v>7112.23</v>
+      </c>
       <c r="D52">
         <f>收入!F29</f>
-        <v>0</v>
+        <v>12887.77</v>
+      </c>
+      <c r="E52" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>20200505</v>
+      </c>
+      <c r="B53">
+        <v>118</v>
+      </c>
+      <c r="C53">
+        <f>SUM($B$27:B53)</f>
+        <v>7230.23</v>
+      </c>
+      <c r="D53">
+        <f>收入!F30</f>
+        <v>12769.77</v>
+      </c>
+      <c r="E53" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>20200504</v>
+      </c>
+      <c r="B54">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <f>SUM($B$27:B54)</f>
+        <v>7238.23</v>
+      </c>
+      <c r="D54">
+        <f>收入!F31</f>
+        <v>12761.77</v>
+      </c>
+      <c r="E54" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>20200504</v>
+      </c>
+      <c r="B55">
+        <v>20</v>
+      </c>
+      <c r="C55">
+        <f>SUM($B$27:B55)</f>
+        <v>7258.23</v>
+      </c>
+      <c r="D55">
+        <f>收入!F32</f>
+        <v>12741.77</v>
+      </c>
+      <c r="E55" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>20200504</v>
+      </c>
+      <c r="B56">
+        <v>185</v>
+      </c>
+      <c r="C56">
+        <f>SUM($B$27:B56)</f>
+        <v>7443.23</v>
+      </c>
+      <c r="D56">
+        <f>收入!F33</f>
+        <v>12556.77</v>
+      </c>
+      <c r="E56" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>20200506</v>
+      </c>
+      <c r="B57">
+        <v>58</v>
+      </c>
+      <c r="C57">
+        <f>SUM($B$27:B57)</f>
+        <v>7501.23</v>
+      </c>
+      <c r="D57">
+        <f>收入!F34</f>
+        <v>12498.77</v>
+      </c>
+      <c r="E57" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>20200506</v>
+      </c>
+      <c r="B58">
+        <v>53.2</v>
+      </c>
+      <c r="C58">
+        <f>SUM($B$27:B58)</f>
+        <v>7554.4299999999994</v>
+      </c>
+      <c r="D58">
+        <f>收入!F35</f>
+        <v>12445.57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>20200506</v>
+      </c>
+      <c r="B59">
+        <v>386</v>
+      </c>
+      <c r="C59">
+        <f>SUM($B$27:B59)</f>
+        <v>7940.4299999999994</v>
+      </c>
+      <c r="D59">
+        <f>收入!F36</f>
+        <v>12059.57</v>
+      </c>
+      <c r="E59" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -3784,13 +4398,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
       <c r="H1" s="33"/>
@@ -3924,7 +4538,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4094,7 +4708,7 @@
         <v>1418</v>
       </c>
       <c r="D11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4160,13 +4774,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P156"/>
+  <dimension ref="A1:P164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="H140" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="H143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D155" sqref="D155"/>
+      <selection pane="bottomRight" activeCell="D146" sqref="D146:D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4240,12 +4854,12 @@
         <f>SUM($B$2:B3)</f>
         <v>884</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
@@ -5434,18 +6048,18 @@
       <c r="O69" s="28"/>
     </row>
     <row r="70" spans="1:15" ht="35.25">
-      <c r="A70" s="54">
+      <c r="A70" s="55">
         <v>201912</v>
       </c>
-      <c r="B70" s="54"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="54"/>
-      <c r="I70" s="54"/>
-      <c r="J70" s="54"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="55"/>
+      <c r="I70" s="55"/>
+      <c r="J70" s="55"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="3" t="s">
@@ -5504,10 +6118,10 @@
         <f>SUM($B$72:B73)</f>
         <v>103</v>
       </c>
-      <c r="H73" s="51"/>
-      <c r="I73" s="51"/>
-      <c r="J73" s="51"/>
-      <c r="K73" s="51"/>
+      <c r="H73" s="52"/>
+      <c r="I73" s="52"/>
+      <c r="J73" s="52"/>
+      <c r="K73" s="52"/>
     </row>
     <row r="74" spans="1:15">
       <c r="A74">
@@ -6223,17 +6837,17 @@
       <c r="P116" s="30"/>
     </row>
     <row r="118" spans="1:16" ht="35.25">
-      <c r="A118" s="54" t="s">
+      <c r="A118" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="B118" s="54"/>
-      <c r="C118" s="54"/>
-      <c r="D118" s="54"/>
-      <c r="E118" s="54"/>
-      <c r="F118" s="54"/>
-      <c r="G118" s="54"/>
-      <c r="H118" s="54"/>
-      <c r="I118" s="54"/>
+      <c r="B118" s="55"/>
+      <c r="C118" s="55"/>
+      <c r="D118" s="55"/>
+      <c r="E118" s="55"/>
+      <c r="F118" s="55"/>
+      <c r="G118" s="55"/>
+      <c r="H118" s="55"/>
+      <c r="I118" s="55"/>
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="27">
@@ -6306,14 +6920,14 @@
       <c r="K123" s="28"/>
     </row>
     <row r="125" spans="1:16" ht="33">
-      <c r="A125" s="55">
+      <c r="A125" s="56">
         <v>202003</v>
       </c>
-      <c r="B125" s="55"/>
-      <c r="C125" s="55"/>
-      <c r="D125" s="55"/>
-      <c r="E125" s="55"/>
-      <c r="F125" s="55"/>
+      <c r="B125" s="56"/>
+      <c r="C125" s="56"/>
+      <c r="D125" s="56"/>
+      <c r="E125" s="56"/>
+      <c r="F125" s="56"/>
     </row>
     <row r="126" spans="1:16">
       <c r="A126">
@@ -6361,10 +6975,10 @@
       </c>
     </row>
     <row r="131" spans="1:11" ht="25.5">
-      <c r="A131" s="53" t="s">
+      <c r="A131" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="B131" s="53"/>
+      <c r="B131" s="54"/>
       <c r="C131" s="31"/>
       <c r="D131" s="36">
         <f>E123+C128</f>
@@ -6379,12 +6993,12 @@
       <c r="K131" s="31"/>
     </row>
     <row r="133" spans="1:11" ht="33">
-      <c r="A133" s="52">
+      <c r="A133" s="53">
         <v>202004</v>
       </c>
-      <c r="B133" s="52"/>
-      <c r="C133" s="52"/>
-      <c r="D133" s="52"/>
+      <c r="B133" s="53"/>
+      <c r="C133" s="53"/>
+      <c r="D133" s="53"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134">
@@ -6581,7 +7195,7 @@
         <v>45</v>
       </c>
       <c r="D146" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -6596,7 +7210,7 @@
         <v>169</v>
       </c>
       <c r="D147" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -6611,7 +7225,7 @@
         <v>265</v>
       </c>
       <c r="D148" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -6626,7 +7240,7 @@
         <v>426.2</v>
       </c>
       <c r="D149" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -6641,7 +7255,7 @@
         <v>501.2</v>
       </c>
       <c r="D150" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -6656,7 +7270,7 @@
         <v>619.20000000000005</v>
       </c>
       <c r="D151" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -6671,7 +7285,7 @@
         <v>627.20000000000005</v>
       </c>
       <c r="D152" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -6686,7 +7300,7 @@
         <v>647.20000000000005</v>
       </c>
       <c r="D153" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -6701,7 +7315,7 @@
         <v>832.2</v>
       </c>
       <c r="D154" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -6716,7 +7330,7 @@
         <v>890.2</v>
       </c>
       <c r="D155" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -6731,7 +7345,64 @@
         <v>943.40000000000009</v>
       </c>
       <c r="D156" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>20200506</v>
+      </c>
+      <c r="B157">
+        <v>386</v>
+      </c>
+      <c r="C157">
+        <f>SUM($B$146:B157)</f>
+        <v>1329.4</v>
+      </c>
+      <c r="D157" t="s">
         <v>305</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="C158">
+        <f>SUM($B$146:B158)</f>
+        <v>1329.4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="C159">
+        <f>SUM($B$146:B159)</f>
+        <v>1329.4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="C160">
+        <f>SUM($B$146:B160)</f>
+        <v>1329.4</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3">
+      <c r="C161">
+        <f>SUM($B$146:B161)</f>
+        <v>1329.4</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3">
+      <c r="C162">
+        <f>SUM($B$146:B162)</f>
+        <v>1329.4</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3">
+      <c r="C163">
+        <f>SUM($B$146:B163)</f>
+        <v>1329.4</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3">
+      <c r="C164">
+        <f>SUM($B$146:B164)</f>
+        <v>1329.4</v>
       </c>
     </row>
   </sheetData>
@@ -8396,7 +9067,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50">
+      <c r="A2" s="51">
         <v>640</v>
       </c>
       <c r="B2">
@@ -8404,73 +9075,73 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="50"/>
+      <c r="A3" s="51"/>
       <c r="B3">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="50"/>
+      <c r="A4" s="51"/>
       <c r="B4">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="50"/>
+      <c r="A5" s="51"/>
       <c r="B5">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="50"/>
+      <c r="A6" s="51"/>
       <c r="B6">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="51"/>
       <c r="B7">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="50"/>
+      <c r="A8" s="51"/>
       <c r="B8">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="50"/>
+      <c r="A9" s="51"/>
       <c r="B9">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="50"/>
+      <c r="A10" s="51"/>
       <c r="B10">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="50"/>
+      <c r="A11" s="51"/>
       <c r="B11">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="50"/>
+      <c r="A12" s="51"/>
       <c r="B12">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="50"/>
+      <c r="A13" s="51"/>
       <c r="B13">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="50"/>
+      <c r="A14" s="51"/>
       <c r="B14">
         <v>40</v>
       </c>

--- a/五金/五金账单20200506.xlsx
+++ b/五金/五金账单20200506.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="收入" sheetId="4" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="材料单价表" sheetId="5" r:id="rId7"/>
     <sheet name="贷款" sheetId="6" r:id="rId8"/>
     <sheet name="夹头" sheetId="11" r:id="rId9"/>
+    <sheet name="送货单" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="407">
   <si>
     <t>样品快递费（扬州）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1514,10 +1515,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">规格 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金刚砂轮φ150 #100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1690,6 +1687,406 @@
   </si>
   <si>
     <t>水，生胶带，螺丝（二哥）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YB-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钨钢锯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发台州、福建两件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自封袋800个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返工费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0640夹头32,35（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YAMAWA丝攻10x1挤压2颗（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rc1/8挤压丝攻2颗（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泵75w4个（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精诚YB25夹头φ20（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两轴气缸，一轴气缸加配件（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12螺杆（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50x8材料4片（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5钻头5包（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YB-25夹头25（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁座，万向管带开关（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钨钢锯片（二哥）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递费（二哥）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡江林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四方杆ER20钻头夹具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车刀30把（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发台州、福建两件（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自封袋800个（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款利息（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线切割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返工费用（二哥）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二哥支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马特ip67级卡尺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钨钢80*0.8*16锯片两片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上定钨钢夹头520还弹簧钢夹头5、6各两个共448</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YB-25夹头25退货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送货日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送货单编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>φ6*100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>φ6*60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>φ6*68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛坯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线切割（二哥）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四方杆ER20钻头夹具（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马特ip67级卡尺（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钨钢80*0.8*16锯片两片（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上定钨钢夹头520还弹簧钢夹头5、6各两个共448（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气缸32x50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气缸配件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车削油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YB-25夹头25退货（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车削油（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插头（二哥）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气缸32x50（二哥）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气缸配件（二哥）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气缸配件（二哥）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀片（二哥）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀片（二哥）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（二哥）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻头（二哥）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂房房租费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂房房租费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝攻（二哥）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂房房租费（二哥）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂房房租费（大哥）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜酒（二哥）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气管（二哥）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锯片（二哥）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶针（二哥）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8mm气管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32X25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6*100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6*60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6*68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀片外螺纹1、1.5、2，CCMT060204,CCMT09T304各两片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递退费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂房房租费（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递退费（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8mm气管（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀片外螺纹1、1.5、2，CCMT060204,CCMT09T304各两片（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻头（二哥）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1826,7 +2223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1848,12 +2245,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1950,7 +2341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2037,7 +2428,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2342,13 +2753,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
+      <selection pane="bottomRight" activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2488,10 +2899,10 @@
       <c r="F8" s="35"/>
     </row>
     <row r="9" spans="1:7" ht="25.5">
-      <c r="A9" s="50">
+      <c r="A9" s="56">
         <v>20200331</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="37">
         <f>SUM($B$2:B9)</f>
         <v>90403</v>
@@ -2547,7 +2958,7 @@
         <f>总支出!B34</f>
         <v>10</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="54">
         <f>D11-总支出!C34</f>
         <v>14956.66</v>
       </c>
@@ -2569,7 +2980,7 @@
         <f>总支出!B35</f>
         <v>68.64</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="54">
         <f>D12-总支出!C35</f>
         <v>14888.02</v>
       </c>
@@ -2591,7 +3002,7 @@
         <f>总支出!B36</f>
         <v>63.05</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="54">
         <f>D13-总支出!C36</f>
         <v>14824.970000000001</v>
       </c>
@@ -2613,7 +3024,7 @@
         <f>总支出!B37</f>
         <v>18</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="54">
         <f>D14-总支出!C37</f>
         <v>14806.970000000001</v>
       </c>
@@ -2635,7 +3046,7 @@
         <f>总支出!B38</f>
         <v>129</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="54">
         <f>D15-总支出!C38</f>
         <v>14677.970000000001</v>
       </c>
@@ -2657,7 +3068,7 @@
         <f>总支出!B39</f>
         <v>100</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="54">
         <f>D16-总支出!C39</f>
         <v>14577.970000000001</v>
       </c>
@@ -2679,7 +3090,7 @@
         <f>总支出!B40</f>
         <v>385</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="54">
         <f>D17-总支出!C40</f>
         <v>14192.970000000001</v>
       </c>
@@ -2701,7 +3112,7 @@
         <f>总支出!B41</f>
         <v>120</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="54">
         <f>D18-总支出!C41</f>
         <v>14072.970000000001</v>
       </c>
@@ -2723,7 +3134,7 @@
         <f>总支出!B42</f>
         <v>93</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="54">
         <f>D19-总支出!C42</f>
         <v>13979.970000000001</v>
       </c>
@@ -2745,7 +3156,7 @@
         <f>总支出!B43</f>
         <v>72</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="54">
         <f>D20-总支出!C43</f>
         <v>13907.970000000001</v>
       </c>
@@ -2767,7 +3178,7 @@
         <f>总支出!B44</f>
         <v>128</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="54">
         <f>D21-总支出!C44</f>
         <v>13779.970000000001</v>
       </c>
@@ -2789,7 +3200,7 @@
         <f>总支出!B45</f>
         <v>182</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="54">
         <f>D22-总支出!C45</f>
         <v>13597.970000000001</v>
       </c>
@@ -2811,7 +3222,7 @@
         <f>总支出!B46</f>
         <v>190</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="54">
         <f>D23-总支出!C46</f>
         <v>13407.970000000001</v>
       </c>
@@ -2833,7 +3244,7 @@
         <f>总支出!B47</f>
         <v>19</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="54">
         <f>D24-总支出!C47</f>
         <v>13388.970000000001</v>
       </c>
@@ -2841,7 +3252,7 @@
     <row r="25" spans="1:6">
       <c r="A25">
         <f>总支出!A48</f>
-        <v>20200504</v>
+        <v>20200506</v>
       </c>
       <c r="C25" s="44">
         <f>SUM($B$2:B25)</f>
@@ -2853,17 +3264,17 @@
       </c>
       <c r="E25" s="44">
         <f>总支出!B48</f>
-        <v>45</v>
-      </c>
-      <c r="F25" s="49">
+        <v>60</v>
+      </c>
+      <c r="F25" s="54">
         <f>D25-总支出!C48</f>
-        <v>13343.970000000001</v>
+        <v>13328.970000000001</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
         <f>总支出!A49</f>
-        <v>20200504</v>
+        <v>20200506</v>
       </c>
       <c r="C26" s="44">
         <f>SUM($B$2:B26)</f>
@@ -2875,17 +3286,17 @@
       </c>
       <c r="E26" s="44">
         <f>总支出!B49</f>
-        <v>124</v>
-      </c>
-      <c r="F26" s="49">
+        <v>1600</v>
+      </c>
+      <c r="F26" s="54">
         <f>D26-总支出!C49</f>
-        <v>13219.970000000001</v>
+        <v>11728.970000000001</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
         <f>总支出!A50</f>
-        <v>20200504</v>
+        <v>20200506</v>
       </c>
       <c r="C27" s="44">
         <f>SUM($B$2:B27)</f>
@@ -2897,17 +3308,17 @@
       </c>
       <c r="E27" s="44">
         <f>总支出!B50</f>
-        <v>96</v>
-      </c>
-      <c r="F27" s="49">
+        <v>8</v>
+      </c>
+      <c r="F27" s="54">
         <f>D27-总支出!C50</f>
-        <v>13123.970000000001</v>
+        <v>11720.970000000001</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
         <f>总支出!A51</f>
-        <v>20200506</v>
+        <v>20200504</v>
       </c>
       <c r="C28" s="44">
         <f>SUM($B$2:B28)</f>
@@ -2919,17 +3330,17 @@
       </c>
       <c r="E28" s="44">
         <f>总支出!B51</f>
-        <v>161.19999999999999</v>
-      </c>
-      <c r="F28" s="49">
+        <v>45</v>
+      </c>
+      <c r="F28" s="54">
         <f>D28-总支出!C51</f>
-        <v>12962.77</v>
+        <v>11675.970000000001</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
         <f>总支出!A52</f>
-        <v>20200505</v>
+        <v>20200504</v>
       </c>
       <c r="C29" s="44">
         <f>SUM($B$2:B29)</f>
@@ -2941,17 +3352,17 @@
       </c>
       <c r="E29" s="44">
         <f>总支出!B52</f>
-        <v>75</v>
-      </c>
-      <c r="F29" s="49">
+        <v>124</v>
+      </c>
+      <c r="F29" s="54">
         <f>D29-总支出!C52</f>
-        <v>12887.77</v>
+        <v>11551.970000000001</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
         <f>总支出!A53</f>
-        <v>20200505</v>
+        <v>20200504</v>
       </c>
       <c r="C30" s="44">
         <f>SUM($B$2:B30)</f>
@@ -2963,17 +3374,17 @@
       </c>
       <c r="E30" s="44">
         <f>总支出!B53</f>
-        <v>118</v>
-      </c>
-      <c r="F30" s="49">
+        <v>96</v>
+      </c>
+      <c r="F30" s="54">
         <f>D30-总支出!C53</f>
-        <v>12769.77</v>
+        <v>11455.970000000001</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
         <f>总支出!A54</f>
-        <v>20200504</v>
+        <v>20200506</v>
       </c>
       <c r="C31" s="44">
         <f>SUM($B$2:B31)</f>
@@ -2985,17 +3396,17 @@
       </c>
       <c r="E31" s="44">
         <f>总支出!B54</f>
-        <v>8</v>
-      </c>
-      <c r="F31" s="49">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="F31" s="54">
         <f>D31-总支出!C54</f>
-        <v>12761.77</v>
+        <v>11294.77</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
         <f>总支出!A55</f>
-        <v>20200504</v>
+        <v>20200505</v>
       </c>
       <c r="C32" s="44">
         <f>SUM($B$2:B32)</f>
@@ -3007,17 +3418,17 @@
       </c>
       <c r="E32" s="44">
         <f>总支出!B55</f>
-        <v>20</v>
-      </c>
-      <c r="F32" s="49">
+        <v>75</v>
+      </c>
+      <c r="F32" s="54">
         <f>D32-总支出!C55</f>
-        <v>12741.77</v>
+        <v>11219.77</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
         <f>总支出!A56</f>
-        <v>20200504</v>
+        <v>20200505</v>
       </c>
       <c r="C33" s="44">
         <f>SUM($B$2:B33)</f>
@@ -3029,17 +3440,17 @@
       </c>
       <c r="E33" s="44">
         <f>总支出!B56</f>
-        <v>185</v>
-      </c>
-      <c r="F33" s="49">
+        <v>118</v>
+      </c>
+      <c r="F33" s="54">
         <f>D33-总支出!C56</f>
-        <v>12556.77</v>
+        <v>11101.77</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
         <f>总支出!A57</f>
-        <v>20200506</v>
+        <v>20200504</v>
       </c>
       <c r="C34" s="44">
         <f>SUM($B$2:B34)</f>
@@ -3051,17 +3462,17 @@
       </c>
       <c r="E34" s="44">
         <f>总支出!B57</f>
-        <v>58</v>
-      </c>
-      <c r="F34" s="49">
+        <v>8</v>
+      </c>
+      <c r="F34" s="54">
         <f>D34-总支出!C57</f>
-        <v>12498.77</v>
+        <v>11093.77</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
         <f>总支出!A58</f>
-        <v>20200506</v>
+        <v>20200504</v>
       </c>
       <c r="C35" s="44">
         <f>SUM($B$2:B35)</f>
@@ -3073,17 +3484,17 @@
       </c>
       <c r="E35" s="44">
         <f>总支出!B58</f>
-        <v>53.2</v>
-      </c>
-      <c r="F35" s="49">
+        <v>20</v>
+      </c>
+      <c r="F35" s="54">
         <f>D35-总支出!C58</f>
-        <v>12445.57</v>
+        <v>11073.77</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
         <f>总支出!A59</f>
-        <v>20200506</v>
+        <v>20200504</v>
       </c>
       <c r="C36" s="44">
         <f>SUM($B$2:B36)</f>
@@ -3095,160 +3506,1247 @@
       </c>
       <c r="E36" s="44">
         <f>总支出!B59</f>
-        <v>386</v>
-      </c>
-      <c r="F36" s="49">
+        <v>185</v>
+      </c>
+      <c r="F36" s="54">
         <f>D36-总支出!C59</f>
-        <v>12059.57</v>
+        <v>10888.77</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
         <f>总支出!A60</f>
-        <v>0</v>
+        <v>20200506</v>
       </c>
       <c r="C37" s="44">
         <f>SUM($B$2:B37)</f>
         <v>110403</v>
       </c>
-      <c r="D37" s="44"/>
+      <c r="D37" s="44">
+        <f>SUM($B$10:B37)</f>
+        <v>20000</v>
+      </c>
       <c r="E37" s="44">
         <f>总支出!B60</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="49">
+        <v>58</v>
+      </c>
+      <c r="F37" s="54">
         <f>D37-总支出!C60</f>
-        <v>0</v>
+        <v>10830.77</v>
       </c>
     </row>
     <row r="38" spans="1:6">
+      <c r="A38">
+        <f>总支出!A61</f>
+        <v>20200506</v>
+      </c>
       <c r="C38" s="44">
         <f>SUM($B$2:B38)</f>
         <v>110403</v>
       </c>
-      <c r="D38" s="44"/>
+      <c r="D38" s="44">
+        <f>SUM($B$10:B38)</f>
+        <v>20000</v>
+      </c>
       <c r="E38" s="44">
         <f>总支出!B61</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="49">
+        <v>53.2</v>
+      </c>
+      <c r="F38" s="54">
         <f>D38-总支出!C61</f>
-        <v>0</v>
+        <v>10777.57</v>
       </c>
     </row>
     <row r="39" spans="1:6">
+      <c r="A39">
+        <f>总支出!A62</f>
+        <v>20200506</v>
+      </c>
       <c r="C39" s="44">
         <f>SUM($B$2:B39)</f>
         <v>110403</v>
       </c>
-      <c r="D39" s="44"/>
+      <c r="D39" s="44">
+        <f>SUM($B$10:B39)</f>
+        <v>20000</v>
+      </c>
       <c r="E39" s="44">
         <f>总支出!B62</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="49">
+        <v>386</v>
+      </c>
+      <c r="F39" s="54">
         <f>D39-总支出!C62</f>
-        <v>0</v>
+        <v>10391.57</v>
       </c>
     </row>
     <row r="40" spans="1:6">
+      <c r="A40">
+        <f>总支出!A63</f>
+        <v>20200507</v>
+      </c>
       <c r="C40" s="44">
         <f>SUM($B$2:B40)</f>
         <v>110403</v>
       </c>
-      <c r="D40" s="44"/>
+      <c r="D40" s="44">
+        <f>SUM($B$10:B40)</f>
+        <v>20000</v>
+      </c>
       <c r="E40" s="44">
         <f>总支出!B63</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="49">
+        <v>20</v>
+      </c>
+      <c r="F40" s="54">
         <f>D40-总支出!C63</f>
-        <v>0</v>
+        <v>10371.57</v>
       </c>
     </row>
     <row r="41" spans="1:6">
+      <c r="A41">
+        <f>总支出!A64</f>
+        <v>20200507</v>
+      </c>
       <c r="C41" s="44">
         <f>SUM($B$2:B41)</f>
         <v>110403</v>
       </c>
-      <c r="D41" s="44"/>
+      <c r="D41" s="44">
+        <f>SUM($B$10:B41)</f>
+        <v>20000</v>
+      </c>
       <c r="E41" s="44">
         <f>总支出!B64</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="49">
+        <v>49.24</v>
+      </c>
+      <c r="F41" s="54">
         <f>D41-总支出!C64</f>
-        <v>0</v>
+        <v>10322.33</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="D42" s="44"/>
+      <c r="A42">
+        <f>总支出!A65</f>
+        <v>20200507</v>
+      </c>
+      <c r="C42" s="44">
+        <f>SUM($B$2:B42)</f>
+        <v>110403</v>
+      </c>
+      <c r="D42" s="44">
+        <f>SUM($B$10:B42)</f>
+        <v>20000</v>
+      </c>
       <c r="E42" s="44">
         <f>总支出!B65</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="49">
+        <v>309.14999999999998</v>
+      </c>
+      <c r="F42" s="54">
         <f>D42-总支出!C65</f>
-        <v>0</v>
+        <v>10013.18</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="D43" s="44"/>
+      <c r="A43">
+        <f>总支出!A66</f>
+        <v>20200507</v>
+      </c>
+      <c r="C43" s="44">
+        <f>SUM($B$2:B43)</f>
+        <v>110403</v>
+      </c>
+      <c r="D43" s="44">
+        <f>SUM($B$10:B43)</f>
+        <v>20000</v>
+      </c>
       <c r="E43" s="44">
         <f>总支出!B66</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="49">
+        <v>39.9</v>
+      </c>
+      <c r="F43" s="54">
         <f>D43-总支出!C66</f>
-        <v>0</v>
+        <v>9973.2800000000007</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="D44" s="44"/>
+      <c r="A44">
+        <f>总支出!A67</f>
+        <v>20200507</v>
+      </c>
+      <c r="C44" s="44">
+        <f>SUM($B$2:B44)</f>
+        <v>110403</v>
+      </c>
+      <c r="D44" s="44">
+        <f>SUM($B$10:B44)</f>
+        <v>20000</v>
+      </c>
       <c r="E44" s="44">
         <f>总支出!B67</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="49">
+        <v>50</v>
+      </c>
+      <c r="F44" s="54">
         <f>D44-总支出!C67</f>
-        <v>0</v>
+        <v>9923.2800000000007</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="D45" s="44"/>
+      <c r="A45">
+        <f>总支出!A68</f>
+        <v>20200508</v>
+      </c>
+      <c r="C45" s="44">
+        <f>SUM($B$2:B45)</f>
+        <v>110403</v>
+      </c>
+      <c r="D45" s="44">
+        <f>SUM($B$10:B45)</f>
+        <v>20000</v>
+      </c>
       <c r="E45" s="44">
         <f>总支出!B68</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="49">
+        <v>18</v>
+      </c>
+      <c r="F45" s="54">
         <f>D45-总支出!C68</f>
-        <v>0</v>
+        <v>9905.2800000000007</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="D46" s="44"/>
+      <c r="A46">
+        <f>总支出!A69</f>
+        <v>20200508</v>
+      </c>
+      <c r="C46" s="44">
+        <f>SUM($B$2:B46)</f>
+        <v>110403</v>
+      </c>
+      <c r="D46" s="44">
+        <f>SUM($B$10:B46)</f>
+        <v>20000</v>
+      </c>
       <c r="E46" s="44">
         <f>总支出!B69</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="49">
+        <v>286</v>
+      </c>
+      <c r="F46" s="54">
         <f>D46-总支出!C69</f>
-        <v>0</v>
+        <v>9619.2800000000007</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="D47" s="44"/>
+      <c r="A47">
+        <f>总支出!A70</f>
+        <v>20200508</v>
+      </c>
+      <c r="C47" s="44">
+        <f>SUM($B$2:B47)</f>
+        <v>110403</v>
+      </c>
+      <c r="D47" s="44">
+        <f>SUM($B$10:B47)</f>
+        <v>20000</v>
+      </c>
       <c r="E47" s="44">
         <f>总支出!B70</f>
+        <v>156</v>
+      </c>
+      <c r="F47" s="54">
+        <f>D47-总支出!C70</f>
+        <v>9463.2800000000007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <f>总支出!A71</f>
+        <v>20200508</v>
+      </c>
+      <c r="C48" s="44">
+        <f>SUM($B$2:B48)</f>
+        <v>110403</v>
+      </c>
+      <c r="D48" s="44">
+        <f>SUM($B$10:B48)</f>
+        <v>20000</v>
+      </c>
+      <c r="E48" s="44">
+        <f>总支出!B71</f>
+        <v>-72</v>
+      </c>
+      <c r="F48" s="54">
+        <f>D48-总支出!C71</f>
+        <v>9535.2800000000007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <f>总支出!A72</f>
+        <v>20200508</v>
+      </c>
+      <c r="C49" s="44">
+        <f>SUM($B$2:B49)</f>
+        <v>110403</v>
+      </c>
+      <c r="D49" s="44">
+        <f>SUM($B$10:B49)</f>
+        <v>20000</v>
+      </c>
+      <c r="E49" s="44">
+        <f>总支出!B72</f>
+        <v>-58</v>
+      </c>
+      <c r="F49" s="54">
+        <f>D49-总支出!C72</f>
+        <v>9593.2800000000007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <f>总支出!A73</f>
+        <v>20200508</v>
+      </c>
+      <c r="C50" s="44">
+        <f>SUM($B$2:B50)</f>
+        <v>110403</v>
+      </c>
+      <c r="D50" s="44">
+        <f>SUM($B$10:B50)</f>
+        <v>20000</v>
+      </c>
+      <c r="E50" s="44">
+        <f>总支出!B73</f>
+        <v>125</v>
+      </c>
+      <c r="F50" s="54">
+        <f>D50-总支出!C73</f>
+        <v>9468.2800000000007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <f>总支出!A74</f>
+        <v>20200509</v>
+      </c>
+      <c r="C51" s="44">
+        <f>SUM($B$2:B51)</f>
+        <v>110403</v>
+      </c>
+      <c r="D51" s="44">
+        <f>SUM($B$10:B51)</f>
+        <v>20000</v>
+      </c>
+      <c r="E51" s="44">
+        <f>总支出!B74</f>
+        <v>52</v>
+      </c>
+      <c r="F51" s="54">
+        <f>D51-总支出!C74</f>
+        <v>9416.2800000000007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <f>总支出!A75</f>
+        <v>20200509</v>
+      </c>
+      <c r="C52" s="44">
+        <f>SUM($B$2:B52)</f>
+        <v>110403</v>
+      </c>
+      <c r="D52" s="44">
+        <f>SUM($B$10:B52)</f>
+        <v>20000</v>
+      </c>
+      <c r="E52" s="44">
+        <f>总支出!B75</f>
+        <v>70</v>
+      </c>
+      <c r="F52" s="54">
+        <f>D52-总支出!C75</f>
+        <v>9346.2800000000007</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <f>总支出!A76</f>
+        <v>20200509</v>
+      </c>
+      <c r="C53" s="44">
+        <f>SUM($B$2:B53)</f>
+        <v>110403</v>
+      </c>
+      <c r="D53" s="44">
+        <f>SUM($B$10:B53)</f>
+        <v>20000</v>
+      </c>
+      <c r="E53" s="44">
+        <f>总支出!B76</f>
+        <v>55</v>
+      </c>
+      <c r="F53" s="54">
+        <f>D53-总支出!C76</f>
+        <v>9291.2800000000007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <f>总支出!A77</f>
+        <v>20200509</v>
+      </c>
+      <c r="C54" s="44">
+        <f>SUM($B$2:B54)</f>
+        <v>110403</v>
+      </c>
+      <c r="D54" s="44">
+        <f>SUM($B$10:B54)</f>
+        <v>20000</v>
+      </c>
+      <c r="E54" s="44">
+        <f>总支出!B77</f>
+        <v>20</v>
+      </c>
+      <c r="F54" s="54">
+        <f>D54-总支出!C77</f>
+        <v>9271.2800000000007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <f>总支出!A78</f>
+        <v>20200509</v>
+      </c>
+      <c r="C55" s="44">
+        <f>SUM($B$2:B55)</f>
+        <v>110403</v>
+      </c>
+      <c r="D55" s="44">
+        <f>SUM($B$10:B55)</f>
+        <v>20000</v>
+      </c>
+      <c r="E55" s="44">
+        <f>总支出!B78</f>
+        <v>2</v>
+      </c>
+      <c r="F55" s="54">
+        <f>D55-总支出!C78</f>
+        <v>9269.2800000000007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <f>总支出!A79</f>
+        <v>20200509</v>
+      </c>
+      <c r="C56" s="44">
+        <f>SUM($B$2:B56)</f>
+        <v>110403</v>
+      </c>
+      <c r="D56" s="44">
+        <f>SUM($B$10:B56)</f>
+        <v>20000</v>
+      </c>
+      <c r="E56" s="44">
+        <f>总支出!B79</f>
+        <v>12</v>
+      </c>
+      <c r="F56" s="54">
+        <f>D56-总支出!C79</f>
+        <v>9257.2800000000007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <f>总支出!A80</f>
+        <v>20200509</v>
+      </c>
+      <c r="C57" s="44">
+        <f>SUM($B$2:B57)</f>
+        <v>110403</v>
+      </c>
+      <c r="D57" s="44">
+        <f>SUM($B$10:B57)</f>
+        <v>20000</v>
+      </c>
+      <c r="E57" s="44">
+        <f>总支出!B80</f>
+        <v>152</v>
+      </c>
+      <c r="F57" s="54">
+        <f>D57-总支出!C80</f>
+        <v>9105.2800000000007</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <f>总支出!A81</f>
+        <v>20200509</v>
+      </c>
+      <c r="C58" s="44">
+        <f>SUM($B$2:B58)</f>
+        <v>110403</v>
+      </c>
+      <c r="D58" s="44">
+        <f>SUM($B$10:B58)</f>
+        <v>20000</v>
+      </c>
+      <c r="E58" s="44">
+        <f>总支出!B81</f>
+        <v>224</v>
+      </c>
+      <c r="F58" s="54">
+        <f>D58-总支出!C81</f>
+        <v>8881.2800000000007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <f>总支出!A82</f>
+        <v>20200509</v>
+      </c>
+      <c r="C59" s="44">
+        <f>SUM($B$2:B59)</f>
+        <v>110403</v>
+      </c>
+      <c r="D59" s="44">
+        <f>SUM($B$10:B59)</f>
+        <v>20000</v>
+      </c>
+      <c r="E59" s="44">
+        <f>总支出!B82</f>
+        <v>185</v>
+      </c>
+      <c r="F59" s="54">
+        <f>D59-总支出!C82</f>
+        <v>8696.2800000000007</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <f>总支出!A83</f>
+        <v>20200509</v>
+      </c>
+      <c r="C60" s="44">
+        <f>SUM($B$2:B60)</f>
+        <v>110403</v>
+      </c>
+      <c r="D60" s="44">
+        <f>SUM($B$10:B60)</f>
+        <v>20000</v>
+      </c>
+      <c r="E60" s="44">
+        <f>总支出!B83</f>
+        <v>36</v>
+      </c>
+      <c r="F60" s="54">
+        <f>D60-总支出!C83</f>
+        <v>8660.2800000000007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <f>总支出!A84</f>
+        <v>20200510</v>
+      </c>
+      <c r="C61" s="44">
+        <f>SUM($B$2:B61)</f>
+        <v>110403</v>
+      </c>
+      <c r="D61" s="44">
+        <f>SUM($B$10:B61)</f>
+        <v>20000</v>
+      </c>
+      <c r="E61" s="44">
+        <f>总支出!B84</f>
+        <v>2500</v>
+      </c>
+      <c r="F61" s="54">
+        <f>D61-总支出!C84</f>
+        <v>6160.2800000000007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <f>总支出!A85</f>
+        <v>20200510</v>
+      </c>
+      <c r="C62" s="44">
+        <f>SUM($B$2:B62)</f>
+        <v>110403</v>
+      </c>
+      <c r="D62" s="44">
+        <f>SUM($B$10:B62)</f>
+        <v>20000</v>
+      </c>
+      <c r="E62" s="44">
+        <f>总支出!B85</f>
+        <v>6000</v>
+      </c>
+      <c r="F62" s="54">
+        <f>D62-总支出!C85</f>
+        <v>160.27999999999884</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <f>总支出!A86</f>
+        <v>20200510</v>
+      </c>
+      <c r="C63" s="44">
+        <f>SUM($B$2:B63)</f>
+        <v>110403</v>
+      </c>
+      <c r="D63" s="44">
+        <f>SUM($B$10:B63)</f>
+        <v>20000</v>
+      </c>
+      <c r="E63" s="44">
+        <f>总支出!B86</f>
+        <v>1500</v>
+      </c>
+      <c r="F63" s="54">
+        <f>D63-总支出!C86</f>
+        <v>-1339.7200000000012</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <f>总支出!A87</f>
+        <v>20200510</v>
+      </c>
+      <c r="C64" s="44">
+        <f>SUM($B$2:B64)</f>
+        <v>110403</v>
+      </c>
+      <c r="D64" s="44">
+        <f>SUM($B$10:B64)</f>
+        <v>20000</v>
+      </c>
+      <c r="E64" s="44">
+        <f>总支出!B87</f>
+        <v>89.5</v>
+      </c>
+      <c r="F64" s="54">
+        <f>D64-总支出!C87</f>
+        <v>-1429.2200000000012</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <f>总支出!A88</f>
+        <v>20200510</v>
+      </c>
+      <c r="C65" s="44">
+        <f>SUM($B$2:B65)</f>
+        <v>110403</v>
+      </c>
+      <c r="D65" s="44">
+        <f>SUM($B$10:B65)</f>
+        <v>20000</v>
+      </c>
+      <c r="E65" s="44">
+        <f>总支出!B88</f>
+        <v>10</v>
+      </c>
+      <c r="F65" s="54">
+        <f>D65-总支出!C88</f>
+        <v>-1439.2200000000012</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <f>总支出!A89</f>
+        <v>20200511</v>
+      </c>
+      <c r="C66" s="44">
+        <f>SUM($B$2:B66)</f>
+        <v>110403</v>
+      </c>
+      <c r="D66" s="44">
+        <f>SUM($B$10:B66)</f>
+        <v>20000</v>
+      </c>
+      <c r="E66" s="44">
+        <f>总支出!B89</f>
+        <v>190</v>
+      </c>
+      <c r="F66" s="54">
+        <f>D66-总支出!C89</f>
+        <v>-1629.2200000000012</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <f>总支出!A90</f>
+        <v>20200511</v>
+      </c>
+      <c r="C67" s="44">
+        <f>SUM($B$2:B67)</f>
+        <v>110403</v>
+      </c>
+      <c r="D67" s="44">
+        <f>SUM($B$10:B67)</f>
+        <v>20000</v>
+      </c>
+      <c r="E67" s="44">
+        <f>总支出!B90</f>
+        <v>75</v>
+      </c>
+      <c r="F67" s="54">
+        <f>D67-总支出!C90</f>
+        <v>-1704.2200000000012</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <f>总支出!A91</f>
+        <v>20200511</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" s="44">
+        <f>SUM($B$2:B68)</f>
+        <v>110406</v>
+      </c>
+      <c r="D68" s="44">
+        <f>SUM($B$10:B68)</f>
+        <v>20003</v>
+      </c>
+      <c r="E68" s="44">
+        <f>总支出!B91</f>
+        <v>-3</v>
+      </c>
+      <c r="F68" s="54">
+        <f>D68-总支出!C91</f>
+        <v>-1698.2200000000012</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <f>总支出!A92</f>
+        <v>20200512</v>
+      </c>
+      <c r="C69" s="44">
+        <f>SUM($B$2:B69)</f>
+        <v>110406</v>
+      </c>
+      <c r="D69" s="44">
+        <f>SUM($B$10:B69)</f>
+        <v>20003</v>
+      </c>
+      <c r="E69" s="44">
+        <f>总支出!B92</f>
+        <v>50.62</v>
+      </c>
+      <c r="F69" s="54">
+        <f>D69-总支出!C92</f>
+        <v>-1748.8400000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <f>总支出!A93</f>
+        <v>20200515</v>
+      </c>
+      <c r="C70" s="44">
+        <f>SUM($B$2:B70)</f>
+        <v>110406</v>
+      </c>
+      <c r="D70" s="44">
+        <f>SUM($B$10:B70)</f>
+        <v>20003</v>
+      </c>
+      <c r="E70" s="44">
+        <f>总支出!B93</f>
+        <v>98</v>
+      </c>
+      <c r="F70" s="54">
+        <f>D70-总支出!C93</f>
+        <v>-1846.8400000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <f>总支出!A94</f>
+        <v>20200515</v>
+      </c>
+      <c r="C71" s="44">
+        <f>SUM($B$2:B71)</f>
+        <v>110406</v>
+      </c>
+      <c r="D71" s="44">
+        <f>SUM($B$10:B71)</f>
+        <v>20003</v>
+      </c>
+      <c r="E71" s="44">
+        <f>总支出!B94</f>
+        <v>150</v>
+      </c>
+      <c r="F71" s="54">
+        <f>D71-总支出!C94</f>
+        <v>-1996.8400000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <f>总支出!A95</f>
         <v>0</v>
       </c>
-      <c r="F47" s="49">
-        <f>D47-总支出!C70</f>
+      <c r="C72" s="44">
+        <f>SUM($B$2:B72)</f>
+        <v>110406</v>
+      </c>
+      <c r="D72" s="44">
+        <f>SUM($B$10:B72)</f>
+        <v>20003</v>
+      </c>
+      <c r="E72" s="44">
+        <f>总支出!B95</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="D48" s="44"/>
+      <c r="F72" s="53">
+        <f>D72-总支出!C96</f>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <f>总支出!A96</f>
+        <v>0</v>
+      </c>
+      <c r="C73" s="44">
+        <f>SUM($B$2:B73)</f>
+        <v>110406</v>
+      </c>
+      <c r="D73" s="44">
+        <f>SUM($B$10:B73)</f>
+        <v>20003</v>
+      </c>
+      <c r="E73" s="44">
+        <f>总支出!B96</f>
+        <v>0</v>
+      </c>
+      <c r="F73" s="53">
+        <f>D73-总支出!C97</f>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <f>总支出!A97</f>
+        <v>0</v>
+      </c>
+      <c r="C74" s="44">
+        <f>SUM($B$2:B74)</f>
+        <v>110406</v>
+      </c>
+      <c r="D74" s="44">
+        <f>SUM($B$10:B74)</f>
+        <v>20003</v>
+      </c>
+      <c r="E74" s="44">
+        <f>总支出!B97</f>
+        <v>0</v>
+      </c>
+      <c r="F74" s="53">
+        <f>D74-总支出!C98</f>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <f>总支出!A98</f>
+        <v>0</v>
+      </c>
+      <c r="C75" s="44">
+        <f>SUM($B$2:B75)</f>
+        <v>110406</v>
+      </c>
+      <c r="D75" s="44">
+        <f>SUM($B$10:B75)</f>
+        <v>20003</v>
+      </c>
+      <c r="E75" s="44">
+        <f>总支出!B98</f>
+        <v>0</v>
+      </c>
+      <c r="F75" s="53">
+        <f>D75-总支出!C99</f>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <f>总支出!A99</f>
+        <v>0</v>
+      </c>
+      <c r="C76" s="44">
+        <f>SUM($B$2:B76)</f>
+        <v>110406</v>
+      </c>
+      <c r="D76" s="44">
+        <f>SUM($B$10:B76)</f>
+        <v>20003</v>
+      </c>
+      <c r="E76" s="44">
+        <f>总支出!B99</f>
+        <v>0</v>
+      </c>
+      <c r="F76" s="53">
+        <f>D76-总支出!C100</f>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <f>总支出!A100</f>
+        <v>0</v>
+      </c>
+      <c r="C77" s="44">
+        <f>SUM($B$2:B77)</f>
+        <v>110406</v>
+      </c>
+      <c r="D77" s="44">
+        <f>SUM($B$10:B77)</f>
+        <v>20003</v>
+      </c>
+      <c r="E77" s="44">
+        <f>总支出!B100</f>
+        <v>0</v>
+      </c>
+      <c r="F77" s="53">
+        <f>D77-总支出!C101</f>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <f>总支出!A101</f>
+        <v>0</v>
+      </c>
+      <c r="C78" s="44">
+        <f>SUM($B$2:B78)</f>
+        <v>110406</v>
+      </c>
+      <c r="D78" s="44">
+        <f>SUM($B$10:B78)</f>
+        <v>20003</v>
+      </c>
+      <c r="E78" s="44">
+        <f>总支出!B101</f>
+        <v>0</v>
+      </c>
+      <c r="F78" s="53">
+        <f>D78-总支出!C102</f>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <f>总支出!A102</f>
+        <v>0</v>
+      </c>
+      <c r="C79" s="44">
+        <f>SUM($B$2:B79)</f>
+        <v>110406</v>
+      </c>
+      <c r="D79" s="44">
+        <f>SUM($B$10:B79)</f>
+        <v>20003</v>
+      </c>
+      <c r="E79" s="44">
+        <f>总支出!B102</f>
+        <v>0</v>
+      </c>
+      <c r="F79" s="53">
+        <f>D79-总支出!C103</f>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <f>总支出!A103</f>
+        <v>0</v>
+      </c>
+      <c r="C80" s="44">
+        <f>SUM($B$2:B80)</f>
+        <v>110406</v>
+      </c>
+      <c r="D80" s="44">
+        <f>SUM($B$10:B80)</f>
+        <v>20003</v>
+      </c>
+      <c r="E80" s="44">
+        <f>总支出!B103</f>
+        <v>0</v>
+      </c>
+      <c r="F80" s="53">
+        <f>D80-总支出!C104</f>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <f>总支出!A104</f>
+        <v>0</v>
+      </c>
+      <c r="C81" s="44">
+        <f>SUM($B$2:B81)</f>
+        <v>110406</v>
+      </c>
+      <c r="D81" s="44">
+        <f>SUM($B$10:B81)</f>
+        <v>20003</v>
+      </c>
+      <c r="E81" s="44">
+        <f>总支出!B104</f>
+        <v>0</v>
+      </c>
+      <c r="F81" s="53">
+        <f>D81-总支出!C105</f>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <f>总支出!A105</f>
+        <v>0</v>
+      </c>
+      <c r="C82" s="44">
+        <f>SUM($B$2:B82)</f>
+        <v>110406</v>
+      </c>
+      <c r="D82" s="44">
+        <f>SUM($B$10:B82)</f>
+        <v>20003</v>
+      </c>
+      <c r="E82" s="44">
+        <f>总支出!B105</f>
+        <v>0</v>
+      </c>
+      <c r="F82" s="53">
+        <f>D82-总支出!C106</f>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <f>总支出!A106</f>
+        <v>0</v>
+      </c>
+      <c r="C83" s="44">
+        <f>SUM($B$2:B83)</f>
+        <v>110406</v>
+      </c>
+      <c r="D83" s="44">
+        <f>SUM($B$10:B83)</f>
+        <v>20003</v>
+      </c>
+      <c r="E83" s="44">
+        <f>总支出!B106</f>
+        <v>0</v>
+      </c>
+      <c r="F83" s="53">
+        <f>D83-总支出!C107</f>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <f>总支出!A107</f>
+        <v>0</v>
+      </c>
+      <c r="C84" s="44">
+        <f>SUM($B$2:B84)</f>
+        <v>110406</v>
+      </c>
+      <c r="D84" s="44">
+        <f>SUM($B$10:B84)</f>
+        <v>20003</v>
+      </c>
+      <c r="E84" s="44">
+        <f>总支出!B107</f>
+        <v>0</v>
+      </c>
+      <c r="F84" s="53">
+        <f>D84-总支出!C108</f>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <f>总支出!A108</f>
+        <v>0</v>
+      </c>
+      <c r="C85" s="44">
+        <f>SUM($B$2:B85)</f>
+        <v>110406</v>
+      </c>
+      <c r="D85" s="44">
+        <f>SUM($B$10:B85)</f>
+        <v>20003</v>
+      </c>
+      <c r="E85" s="44">
+        <f>总支出!B108</f>
+        <v>0</v>
+      </c>
+      <c r="F85" s="53">
+        <f>D85-总支出!C109</f>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <f>总支出!A109</f>
+        <v>0</v>
+      </c>
+      <c r="C86" s="44">
+        <f>SUM($B$2:B86)</f>
+        <v>110406</v>
+      </c>
+      <c r="D86" s="44">
+        <f>SUM($B$10:B86)</f>
+        <v>20003</v>
+      </c>
+      <c r="E86" s="44">
+        <f>总支出!B109</f>
+        <v>0</v>
+      </c>
+      <c r="F86" s="53">
+        <f>D86-总支出!C110</f>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <f>总支出!A110</f>
+        <v>0</v>
+      </c>
+      <c r="C87" s="44">
+        <f>SUM($B$2:B87)</f>
+        <v>110406</v>
+      </c>
+      <c r="D87" s="44">
+        <f>SUM($B$10:B87)</f>
+        <v>20003</v>
+      </c>
+      <c r="E87" s="44">
+        <f>总支出!B110</f>
+        <v>0</v>
+      </c>
+      <c r="F87" s="53">
+        <f>D87-总支出!C111</f>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <f>总支出!A111</f>
+        <v>0</v>
+      </c>
+      <c r="C88" s="44">
+        <f>SUM($B$2:B88)</f>
+        <v>110406</v>
+      </c>
+      <c r="D88" s="44">
+        <f>SUM($B$10:B88)</f>
+        <v>20003</v>
+      </c>
+      <c r="E88" s="44">
+        <f>总支出!B111</f>
+        <v>0</v>
+      </c>
+      <c r="F88" s="53">
+        <f>D88-总支出!C112</f>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <f>总支出!A112</f>
+        <v>0</v>
+      </c>
+      <c r="C89" s="44">
+        <f>SUM($B$2:B89)</f>
+        <v>110406</v>
+      </c>
+      <c r="D89" s="44">
+        <f>SUM($B$10:B89)</f>
+        <v>20003</v>
+      </c>
+      <c r="E89" s="44">
+        <f>总支出!B112</f>
+        <v>0</v>
+      </c>
+      <c r="F89" s="53">
+        <f>D89-总支出!C113</f>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <f>总支出!A113</f>
+        <v>0</v>
+      </c>
+      <c r="C90" s="44">
+        <f>SUM($B$2:B90)</f>
+        <v>110406</v>
+      </c>
+      <c r="D90" s="44">
+        <f>SUM($B$10:B90)</f>
+        <v>20003</v>
+      </c>
+      <c r="E90" s="44">
+        <f>总支出!B113</f>
+        <v>0</v>
+      </c>
+      <c r="F90" s="53">
+        <f>D90-总支出!C114</f>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <f>总支出!A114</f>
+        <v>0</v>
+      </c>
+      <c r="C91" s="44">
+        <f>SUM($B$2:B91)</f>
+        <v>110406</v>
+      </c>
+      <c r="D91" s="44">
+        <f>SUM($B$10:B91)</f>
+        <v>20003</v>
+      </c>
+      <c r="E91" s="44">
+        <f>总支出!B114</f>
+        <v>0</v>
+      </c>
+      <c r="F91" s="53">
+        <f>D91-总支出!C115</f>
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <f>总支出!A115</f>
+        <v>0</v>
+      </c>
+      <c r="C92" s="44">
+        <f>SUM($B$2:B92)</f>
+        <v>110406</v>
+      </c>
+      <c r="D92" s="44">
+        <f>SUM($B$10:B92)</f>
+        <v>20003</v>
+      </c>
+      <c r="E92" s="44">
+        <f>总支出!B115</f>
+        <v>0</v>
+      </c>
+      <c r="F92" s="53">
+        <f>D92-总支出!C116</f>
+        <v>20003</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3260,15 +4758,252 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="50" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="G1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>395</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>396</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>20200504</v>
+      </c>
+      <c r="B2">
+        <v>1240134</v>
+      </c>
+      <c r="C2">
+        <v>111</v>
+      </c>
+      <c r="D2">
+        <v>2000</v>
+      </c>
+      <c r="E2">
+        <v>1992</v>
+      </c>
+      <c r="G2">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>20200504</v>
+      </c>
+      <c r="B3">
+        <v>1240135</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>349</v>
+      </c>
+      <c r="D3">
+        <v>1001</v>
+      </c>
+      <c r="E3">
+        <v>990</v>
+      </c>
+      <c r="H3">
+        <v>990</v>
+      </c>
+      <c r="I3">
+        <v>478</v>
+      </c>
+      <c r="J3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>20200504</v>
+      </c>
+      <c r="B4">
+        <v>1240135</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>350</v>
+      </c>
+      <c r="E4">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>20200504</v>
+      </c>
+      <c r="B5">
+        <v>1240135</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>351</v>
+      </c>
+      <c r="D5">
+        <v>548</v>
+      </c>
+      <c r="E5">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>20200505</v>
+      </c>
+      <c r="B6">
+        <v>1240136</v>
+      </c>
+      <c r="C6">
+        <v>111</v>
+      </c>
+      <c r="D6">
+        <v>500</v>
+      </c>
+      <c r="E6">
+        <v>445</v>
+      </c>
+      <c r="G6">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>20200506</v>
+      </c>
+      <c r="B7">
+        <v>1240137</v>
+      </c>
+      <c r="C7">
+        <v>111</v>
+      </c>
+      <c r="D7">
+        <v>2000</v>
+      </c>
+      <c r="E7">
+        <v>1990</v>
+      </c>
+      <c r="G7">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>20200507</v>
+      </c>
+      <c r="B8">
+        <v>1240138</v>
+      </c>
+      <c r="C8">
+        <v>111</v>
+      </c>
+      <c r="D8">
+        <v>2000</v>
+      </c>
+      <c r="E8">
+        <v>1927</v>
+      </c>
+      <c r="G8">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>20200508</v>
+      </c>
+      <c r="B9">
+        <v>1240139</v>
+      </c>
+      <c r="C9">
+        <v>111</v>
+      </c>
+      <c r="D9">
+        <v>1500</v>
+      </c>
+      <c r="E9">
+        <v>946</v>
+      </c>
+      <c r="G9">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>20200508</v>
+      </c>
+      <c r="B10">
+        <v>1240139</v>
+      </c>
+      <c r="C10">
+        <v>111</v>
+      </c>
+      <c r="D10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>20200511</v>
+      </c>
+      <c r="C11">
+        <v>111</v>
+      </c>
+      <c r="E11">
+        <v>557</v>
+      </c>
+      <c r="G11">
+        <v>557</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
+      <selection pane="bottomRight" activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3276,7 +5011,7 @@
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="5" max="5" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3702,10 +5437,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="25.5">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="B26" s="51"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="34">
         <f>SUM($B$2:B26)</f>
         <v>54763</v>
@@ -3727,6 +5462,10 @@
         <f>SUM($B$27:B27)</f>
         <v>4652.8899999999994</v>
       </c>
+      <c r="D27">
+        <f>收入!F4</f>
+        <v>0</v>
+      </c>
       <c r="E27" t="s">
         <v>252</v>
       </c>
@@ -3745,6 +5484,10 @@
         <f>SUM($B$27:B28)</f>
         <v>5172.8899999999994</v>
       </c>
+      <c r="D28">
+        <f>收入!F5</f>
+        <v>0</v>
+      </c>
       <c r="E28" t="s">
         <v>247</v>
       </c>
@@ -3840,7 +5583,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7">
       <c r="A33" s="45">
         <v>20200416</v>
       </c>
@@ -3862,7 +5605,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>20200418</v>
       </c>
@@ -3884,7 +5627,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>20200423</v>
       </c>
@@ -3900,13 +5643,13 @@
         <v>14888.02</v>
       </c>
       <c r="E35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F35" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>20200428</v>
       </c>
@@ -3922,13 +5665,13 @@
         <v>14824.970000000001</v>
       </c>
       <c r="E36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F36" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>20200428</v>
       </c>
@@ -3944,13 +5687,16 @@
         <v>14806.970000000001</v>
       </c>
       <c r="E37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F37" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>20200401</v>
       </c>
@@ -3966,10 +5712,17 @@
         <v>14677.970000000001</v>
       </c>
       <c r="E38" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>284</v>
+      </c>
+      <c r="F38" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38">
+        <f>SUM($B$38:B38)</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>20200401</v>
       </c>
@@ -3985,10 +5738,17 @@
         <v>14577.970000000001</v>
       </c>
       <c r="E39" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>285</v>
+      </c>
+      <c r="F39" t="s">
+        <v>116</v>
+      </c>
+      <c r="G39">
+        <f>SUM($B$38:B39)</f>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>20200402</v>
       </c>
@@ -4004,10 +5764,17 @@
         <v>14192.970000000001</v>
       </c>
       <c r="E40" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>286</v>
+      </c>
+      <c r="F40" t="s">
+        <v>116</v>
+      </c>
+      <c r="G40">
+        <f>SUM($B$38:B40)</f>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>20200402</v>
       </c>
@@ -4023,10 +5790,17 @@
         <v>14072.970000000001</v>
       </c>
       <c r="E41" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>287</v>
+      </c>
+      <c r="F41" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41">
+        <f>SUM($B$38:B41)</f>
+        <v>734</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>20200411</v>
       </c>
@@ -4042,10 +5816,17 @@
         <v>13979.970000000001</v>
       </c>
       <c r="E42" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>288</v>
+      </c>
+      <c r="F42" t="s">
+        <v>116</v>
+      </c>
+      <c r="G42">
+        <f>SUM($B$38:B42)</f>
+        <v>827</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>20200420</v>
       </c>
@@ -4061,10 +5842,17 @@
         <v>13907.970000000001</v>
       </c>
       <c r="E43" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>289</v>
+      </c>
+      <c r="F43" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43">
+        <f>SUM($B$38:B43)</f>
+        <v>899</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>20200420</v>
       </c>
@@ -4080,10 +5868,17 @@
         <v>13779.970000000001</v>
       </c>
       <c r="E44" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>290</v>
+      </c>
+      <c r="F44" t="s">
+        <v>116</v>
+      </c>
+      <c r="G44">
+        <f>SUM($B$38:B44)</f>
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>20200420</v>
       </c>
@@ -4099,10 +5894,17 @@
         <v>13597.970000000001</v>
       </c>
       <c r="E45" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>291</v>
+      </c>
+      <c r="F45" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45">
+        <f>SUM($B$38:B45)</f>
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>20200424</v>
       </c>
@@ -4118,10 +5920,17 @@
         <v>13407.970000000001</v>
       </c>
       <c r="E46" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>305</v>
+      </c>
+      <c r="F46" t="s">
+        <v>116</v>
+      </c>
+      <c r="G46">
+        <f>SUM($B$38:B46)</f>
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>20200506</v>
       </c>
@@ -4137,235 +5946,1161 @@
         <v>13388.970000000001</v>
       </c>
       <c r="E47" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>306</v>
+      </c>
+      <c r="F47" t="s">
+        <v>116</v>
+      </c>
+      <c r="G47">
+        <f>SUM($B$38:B47)</f>
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
-        <v>20200504</v>
+        <v>20200506</v>
       </c>
       <c r="B48">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C48">
         <f>SUM($B$27:B48)</f>
-        <v>6656.03</v>
+        <v>6671.03</v>
       </c>
       <c r="D48">
         <f>收入!F25</f>
-        <v>13343.970000000001</v>
+        <v>13328.970000000001</v>
       </c>
       <c r="E48" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>325</v>
+      </c>
+      <c r="F48" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48">
+        <f>SUM($B$38:B48)</f>
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
-        <v>20200504</v>
+        <v>20200506</v>
       </c>
       <c r="B49">
-        <v>124</v>
+        <v>1600</v>
       </c>
       <c r="C49">
         <f>SUM($B$27:B49)</f>
-        <v>6780.03</v>
+        <v>8271.0299999999988</v>
       </c>
       <c r="D49">
         <f>收入!F26</f>
-        <v>13219.970000000001</v>
+        <v>11728.970000000001</v>
       </c>
       <c r="E49" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>336</v>
+      </c>
+      <c r="F49" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49">
+        <f>SUM($B$38:B49)</f>
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
-        <v>20200504</v>
+        <v>20200506</v>
       </c>
       <c r="B50">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="C50">
         <f>SUM($B$27:B50)</f>
-        <v>6876.03</v>
+        <v>8279.0299999999988</v>
       </c>
       <c r="D50">
         <f>收入!F27</f>
-        <v>13123.970000000001</v>
+        <v>11720.970000000001</v>
       </c>
       <c r="E50" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>326</v>
+      </c>
+      <c r="F50" t="s">
+        <v>116</v>
+      </c>
+      <c r="G50">
+        <f>SUM($B$38:B50)</f>
+        <v>3086</v>
+      </c>
+      <c r="H50" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
-        <v>20200506</v>
+        <v>20200504</v>
       </c>
       <c r="B51">
-        <v>161.19999999999999</v>
+        <v>45</v>
       </c>
       <c r="C51">
         <f>SUM($B$27:B51)</f>
-        <v>7037.23</v>
+        <v>8324.0299999999988</v>
       </c>
       <c r="D51">
         <f>收入!F28</f>
-        <v>12962.77</v>
+        <v>11675.970000000001</v>
       </c>
       <c r="E51" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>314</v>
+      </c>
+      <c r="F51" t="s">
+        <v>116</v>
+      </c>
+      <c r="H51">
+        <f>SUM($B$51:B51)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
-        <v>20200505</v>
+        <v>20200504</v>
       </c>
       <c r="B52">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="C52">
         <f>SUM($B$27:B52)</f>
-        <v>7112.23</v>
+        <v>8448.0299999999988</v>
       </c>
       <c r="D52">
         <f>收入!F29</f>
-        <v>12887.77</v>
+        <v>11551.970000000001</v>
       </c>
       <c r="E52" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>315</v>
+      </c>
+      <c r="F52" t="s">
+        <v>116</v>
+      </c>
+      <c r="H52">
+        <f>SUM($B$51:B52)</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
-        <v>20200505</v>
+        <v>20200504</v>
       </c>
       <c r="B53">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C53">
         <f>SUM($B$27:B53)</f>
-        <v>7230.23</v>
+        <v>8544.0299999999988</v>
       </c>
       <c r="D53">
         <f>收入!F30</f>
-        <v>12769.77</v>
+        <v>11455.970000000001</v>
       </c>
       <c r="E53" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>316</v>
+      </c>
+      <c r="F53" t="s">
+        <v>116</v>
+      </c>
+      <c r="H53">
+        <f>SUM($B$51:B53)</f>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
-        <v>20200504</v>
+        <v>20200506</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>161.19999999999999</v>
       </c>
       <c r="C54">
         <f>SUM($B$27:B54)</f>
-        <v>7238.23</v>
+        <v>8705.23</v>
       </c>
       <c r="D54">
         <f>收入!F31</f>
-        <v>12761.77</v>
+        <v>11294.77</v>
       </c>
       <c r="E54" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>317</v>
+      </c>
+      <c r="F54" t="s">
+        <v>116</v>
+      </c>
+      <c r="H54">
+        <f>SUM($B$51:B54)</f>
+        <v>426.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
-        <v>20200504</v>
+        <v>20200505</v>
       </c>
       <c r="B55">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C55">
         <f>SUM($B$27:B55)</f>
-        <v>7258.23</v>
+        <v>8780.23</v>
       </c>
       <c r="D55">
         <f>收入!F32</f>
-        <v>12741.77</v>
+        <v>11219.77</v>
       </c>
       <c r="E55" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>318</v>
+      </c>
+      <c r="F55" t="s">
+        <v>116</v>
+      </c>
+      <c r="H55">
+        <f>SUM($B$51:B55)</f>
+        <v>501.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
-        <v>20200504</v>
+        <v>20200505</v>
       </c>
       <c r="B56">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="C56">
         <f>SUM($B$27:B56)</f>
-        <v>7443.23</v>
+        <v>8898.23</v>
       </c>
       <c r="D56">
         <f>收入!F33</f>
-        <v>12556.77</v>
+        <v>11101.77</v>
       </c>
       <c r="E56" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>319</v>
+      </c>
+      <c r="F56" t="s">
+        <v>116</v>
+      </c>
+      <c r="H56">
+        <f>SUM($B$51:B56)</f>
+        <v>619.20000000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
-        <v>20200506</v>
+        <v>20200504</v>
       </c>
       <c r="B57">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="C57">
         <f>SUM($B$27:B57)</f>
-        <v>7501.23</v>
+        <v>8906.23</v>
       </c>
       <c r="D57">
         <f>收入!F34</f>
-        <v>12498.77</v>
+        <v>11093.77</v>
       </c>
       <c r="E57" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>320</v>
+      </c>
+      <c r="F57" t="s">
+        <v>116</v>
+      </c>
+      <c r="H57">
+        <f>SUM($B$51:B57)</f>
+        <v>627.20000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
-        <v>20200506</v>
+        <v>20200504</v>
       </c>
       <c r="B58">
-        <v>53.2</v>
+        <v>20</v>
       </c>
       <c r="C58">
         <f>SUM($B$27:B58)</f>
-        <v>7554.4299999999994</v>
+        <v>8926.23</v>
       </c>
       <c r="D58">
         <f>收入!F35</f>
-        <v>12445.57</v>
+        <v>11073.77</v>
       </c>
       <c r="E58" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>321</v>
+      </c>
+      <c r="F58" t="s">
+        <v>116</v>
+      </c>
+      <c r="H58">
+        <f>SUM($B$51:B58)</f>
+        <v>647.20000000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
-        <v>20200506</v>
+        <v>20200504</v>
       </c>
       <c r="B59">
-        <v>386</v>
+        <v>185</v>
       </c>
       <c r="C59">
         <f>SUM($B$27:B59)</f>
-        <v>7940.4299999999994</v>
+        <v>9111.23</v>
       </c>
       <c r="D59">
         <f>收入!F36</f>
-        <v>12059.57</v>
+        <v>10888.77</v>
       </c>
       <c r="E59" t="s">
-        <v>305</v>
+        <v>322</v>
+      </c>
+      <c r="F59" t="s">
+        <v>116</v>
+      </c>
+      <c r="H59">
+        <f>SUM($B$51:B59)</f>
+        <v>832.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>20200506</v>
+      </c>
+      <c r="B60">
+        <v>58</v>
+      </c>
+      <c r="C60">
+        <f>SUM($B$27:B60)</f>
+        <v>9169.23</v>
+      </c>
+      <c r="D60">
+        <f>收入!F37</f>
+        <v>10830.77</v>
+      </c>
+      <c r="E60" t="s">
+        <v>323</v>
+      </c>
+      <c r="F60" t="s">
+        <v>116</v>
+      </c>
+      <c r="H60">
+        <f>SUM($B$51:B60)</f>
+        <v>890.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>20200506</v>
+      </c>
+      <c r="B61">
+        <v>53.2</v>
+      </c>
+      <c r="C61">
+        <f>SUM($B$27:B61)</f>
+        <v>9222.43</v>
+      </c>
+      <c r="D61">
+        <f>收入!F38</f>
+        <v>10777.57</v>
+      </c>
+      <c r="E61" t="s">
+        <v>324</v>
+      </c>
+      <c r="F61" t="s">
+        <v>116</v>
+      </c>
+      <c r="H61">
+        <f>SUM($B$51:B61)</f>
+        <v>943.40000000000009</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>20200506</v>
+      </c>
+      <c r="B62">
+        <v>386</v>
+      </c>
+      <c r="C62">
+        <f>SUM($B$27:B62)</f>
+        <v>9608.43</v>
+      </c>
+      <c r="D62">
+        <f>收入!F39</f>
+        <v>10391.57</v>
+      </c>
+      <c r="E62" t="s">
+        <v>331</v>
+      </c>
+      <c r="F62" t="s">
+        <v>116</v>
+      </c>
+      <c r="H62">
+        <f>SUM($B$51:B62)</f>
+        <v>1329.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>20200507</v>
+      </c>
+      <c r="B63">
+        <v>20</v>
+      </c>
+      <c r="C63">
+        <f>SUM($B$27:B63)</f>
+        <v>9628.43</v>
+      </c>
+      <c r="D63">
+        <f>收入!F40</f>
+        <v>10371.57</v>
+      </c>
+      <c r="E63" t="s">
+        <v>332</v>
+      </c>
+      <c r="F63" t="s">
+        <v>116</v>
+      </c>
+      <c r="H63">
+        <f>SUM($B$51:B63)</f>
+        <v>1349.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>20200507</v>
+      </c>
+      <c r="B64">
+        <v>49.24</v>
+      </c>
+      <c r="C64">
+        <f>SUM($B$27:B64)</f>
+        <v>9677.67</v>
+      </c>
+      <c r="D64">
+        <f>收入!F41</f>
+        <v>10322.33</v>
+      </c>
+      <c r="E64" t="s">
+        <v>333</v>
+      </c>
+      <c r="F64" t="s">
+        <v>116</v>
+      </c>
+      <c r="H64">
+        <f>SUM($B$51:B64)</f>
+        <v>1398.64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>20200507</v>
+      </c>
+      <c r="B65">
+        <v>309.14999999999998</v>
+      </c>
+      <c r="C65">
+        <f>SUM($B$27:B65)</f>
+        <v>9986.82</v>
+      </c>
+      <c r="D65">
+        <f>收入!F42</f>
+        <v>10013.18</v>
+      </c>
+      <c r="E65" t="s">
+        <v>334</v>
+      </c>
+      <c r="F65" t="s">
+        <v>116</v>
+      </c>
+      <c r="H65">
+        <f>SUM($B$51:B65)</f>
+        <v>1707.79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>20200507</v>
+      </c>
+      <c r="B66">
+        <v>39.9</v>
+      </c>
+      <c r="C66">
+        <f>SUM($B$27:B66)</f>
+        <v>10026.719999999999</v>
+      </c>
+      <c r="D66">
+        <f>收入!F43</f>
+        <v>9973.2800000000007</v>
+      </c>
+      <c r="E66" t="s">
+        <v>356</v>
+      </c>
+      <c r="F66" t="s">
+        <v>116</v>
+      </c>
+      <c r="H66" s="45">
+        <f>SUM($B$51:B66)</f>
+        <v>1747.69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>20200507</v>
+      </c>
+      <c r="B67">
+        <v>50</v>
+      </c>
+      <c r="C67">
+        <f>SUM($B$27:B67)</f>
+        <v>10076.719999999999</v>
+      </c>
+      <c r="D67">
+        <f>收入!F44</f>
+        <v>9923.2800000000007</v>
+      </c>
+      <c r="E67" t="s">
+        <v>355</v>
+      </c>
+      <c r="F67" t="s">
+        <v>116</v>
+      </c>
+      <c r="G67" s="45">
+        <f>G50+B67</f>
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>20200508</v>
+      </c>
+      <c r="B68">
+        <v>18</v>
+      </c>
+      <c r="C68">
+        <f>SUM($B$27:B68)</f>
+        <v>10094.719999999999</v>
+      </c>
+      <c r="D68">
+        <f>收入!F45</f>
+        <v>9905.2800000000007</v>
+      </c>
+      <c r="E68" t="s">
+        <v>366</v>
+      </c>
+      <c r="G68" s="45">
+        <f>B68</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>20200508</v>
+      </c>
+      <c r="B69">
+        <v>286</v>
+      </c>
+      <c r="C69">
+        <f>SUM($B$27:B69)</f>
+        <v>10380.719999999999</v>
+      </c>
+      <c r="D69">
+        <f>收入!F46</f>
+        <v>9619.2800000000007</v>
+      </c>
+      <c r="E69" t="s">
+        <v>357</v>
+      </c>
+      <c r="H69">
+        <f>SUM($B$69:B69)</f>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>20200508</v>
+      </c>
+      <c r="B70">
+        <v>156</v>
+      </c>
+      <c r="C70">
+        <f>SUM($B$27:B70)</f>
+        <v>10536.72</v>
+      </c>
+      <c r="D70">
+        <f>收入!F47</f>
+        <v>9463.2800000000007</v>
+      </c>
+      <c r="E70" t="s">
+        <v>358</v>
+      </c>
+      <c r="H70">
+        <f>SUM($B$69:B70)</f>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>20200508</v>
+      </c>
+      <c r="B71">
+        <v>-72</v>
+      </c>
+      <c r="C71">
+        <f>SUM($B$27:B71)</f>
+        <v>10464.719999999999</v>
+      </c>
+      <c r="D71">
+        <f>收入!F48</f>
+        <v>9535.2800000000007</v>
+      </c>
+      <c r="E71" t="s">
+        <v>359</v>
+      </c>
+      <c r="H71">
+        <f>SUM($B$69:B71)</f>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>20200508</v>
+      </c>
+      <c r="B72">
+        <v>-58</v>
+      </c>
+      <c r="C72">
+        <f>SUM($B$27:B72)</f>
+        <v>10406.719999999999</v>
+      </c>
+      <c r="D72">
+        <f>收入!F49</f>
+        <v>9593.2800000000007</v>
+      </c>
+      <c r="E72" t="s">
+        <v>364</v>
+      </c>
+      <c r="H72">
+        <f>SUM($B$69:B72)</f>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>20200508</v>
+      </c>
+      <c r="B73">
+        <v>125</v>
+      </c>
+      <c r="C73">
+        <f>SUM($B$27:B73)</f>
+        <v>10531.72</v>
+      </c>
+      <c r="D73">
+        <f>收入!F50</f>
+        <v>9468.2800000000007</v>
+      </c>
+      <c r="E73" t="s">
+        <v>365</v>
+      </c>
+      <c r="H73">
+        <f>SUM($B$69:B73)</f>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>20200509</v>
+      </c>
+      <c r="B74">
+        <v>52</v>
+      </c>
+      <c r="C74">
+        <f>SUM($B$27:B74)</f>
+        <v>10583.72</v>
+      </c>
+      <c r="D74">
+        <f>收入!F51</f>
+        <v>9416.2800000000007</v>
+      </c>
+      <c r="E74" t="s">
+        <v>367</v>
+      </c>
+      <c r="G74">
+        <f>SUM($B$74:B74)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <v>20200509</v>
+      </c>
+      <c r="B75">
+        <v>70</v>
+      </c>
+      <c r="C75">
+        <f>SUM($B$27:B75)</f>
+        <v>10653.72</v>
+      </c>
+      <c r="D75">
+        <f>收入!F52</f>
+        <v>9346.2800000000007</v>
+      </c>
+      <c r="E75" t="s">
+        <v>368</v>
+      </c>
+      <c r="G75">
+        <f>SUM($B$74:B75)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <v>20200509</v>
+      </c>
+      <c r="B76">
+        <v>55</v>
+      </c>
+      <c r="C76">
+        <f>SUM($B$27:B76)</f>
+        <v>10708.72</v>
+      </c>
+      <c r="D76">
+        <f>收入!F53</f>
+        <v>9291.2800000000007</v>
+      </c>
+      <c r="E76" t="s">
+        <v>368</v>
+      </c>
+      <c r="G76">
+        <f>SUM($B$74:B76)</f>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <v>20200509</v>
+      </c>
+      <c r="B77">
+        <v>20</v>
+      </c>
+      <c r="C77">
+        <f>SUM($B$27:B77)</f>
+        <v>10728.72</v>
+      </c>
+      <c r="D77">
+        <f>收入!F54</f>
+        <v>9271.2800000000007</v>
+      </c>
+      <c r="E77" t="s">
+        <v>369</v>
+      </c>
+      <c r="G77">
+        <f>SUM($B$74:B77)</f>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <v>20200509</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <f>SUM($B$27:B78)</f>
+        <v>10730.72</v>
+      </c>
+      <c r="D78">
+        <f>收入!F55</f>
+        <v>9269.2800000000007</v>
+      </c>
+      <c r="E78" t="s">
+        <v>368</v>
+      </c>
+      <c r="G78">
+        <f>SUM($B$74:B78)</f>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <v>20200509</v>
+      </c>
+      <c r="B79">
+        <v>12</v>
+      </c>
+      <c r="C79">
+        <f>SUM($B$27:B79)</f>
+        <v>10742.72</v>
+      </c>
+      <c r="D79">
+        <f>收入!F56</f>
+        <v>9257.2800000000007</v>
+      </c>
+      <c r="E79" t="s">
+        <v>370</v>
+      </c>
+      <c r="G79">
+        <f>SUM($B$74:B79)</f>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <v>20200509</v>
+      </c>
+      <c r="B80">
+        <v>152</v>
+      </c>
+      <c r="C80">
+        <f>SUM($B$27:B80)</f>
+        <v>10894.72</v>
+      </c>
+      <c r="D80">
+        <f>收入!F57</f>
+        <v>9105.2800000000007</v>
+      </c>
+      <c r="E80" t="s">
+        <v>371</v>
+      </c>
+      <c r="G80">
+        <f>SUM($B$74:B80)</f>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>20200509</v>
+      </c>
+      <c r="B81">
+        <v>224</v>
+      </c>
+      <c r="C81">
+        <f>SUM($B$27:B81)</f>
+        <v>11118.72</v>
+      </c>
+      <c r="D81">
+        <f>收入!F58</f>
+        <v>8881.2800000000007</v>
+      </c>
+      <c r="E81" t="s">
+        <v>374</v>
+      </c>
+      <c r="G81">
+        <f>SUM($B$74:B81)</f>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>20200509</v>
+      </c>
+      <c r="B82">
+        <v>185</v>
+      </c>
+      <c r="C82">
+        <f>SUM($B$27:B82)</f>
+        <v>11303.72</v>
+      </c>
+      <c r="D82">
+        <f>收入!F59</f>
+        <v>8696.2800000000007</v>
+      </c>
+      <c r="E82" t="s">
+        <v>375</v>
+      </c>
+      <c r="G82">
+        <f>SUM($B$74:B82)</f>
+        <v>772</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>20200509</v>
+      </c>
+      <c r="B83">
+        <v>36</v>
+      </c>
+      <c r="C83">
+        <f>SUM($B$27:B83)</f>
+        <v>11339.72</v>
+      </c>
+      <c r="D83">
+        <f>收入!F60</f>
+        <v>8660.2800000000007</v>
+      </c>
+      <c r="E83" t="s">
+        <v>379</v>
+      </c>
+      <c r="G83">
+        <f>SUM($B$74:B83)</f>
+        <v>808</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>20200510</v>
+      </c>
+      <c r="B84">
+        <v>2500</v>
+      </c>
+      <c r="C84">
+        <f>SUM($B$27:B84)</f>
+        <v>13839.72</v>
+      </c>
+      <c r="D84">
+        <f>收入!F61</f>
+        <v>6160.2800000000007</v>
+      </c>
+      <c r="E84" t="s">
+        <v>380</v>
+      </c>
+      <c r="G84">
+        <f>SUM($B$74:B84)</f>
+        <v>3308</v>
+      </c>
+      <c r="I84" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85">
+        <v>20200510</v>
+      </c>
+      <c r="B85">
+        <v>6000</v>
+      </c>
+      <c r="C85">
+        <f>SUM($B$27:B85)</f>
+        <v>19839.72</v>
+      </c>
+      <c r="D85">
+        <f>收入!F62</f>
+        <v>160.27999999999884</v>
+      </c>
+      <c r="E85" t="s">
+        <v>381</v>
+      </c>
+      <c r="I85">
+        <f>B85</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>20200510</v>
+      </c>
+      <c r="B86">
+        <v>1500</v>
+      </c>
+      <c r="C86">
+        <f>SUM($B$27:B86)</f>
+        <v>21339.72</v>
+      </c>
+      <c r="D86">
+        <f>收入!F63</f>
+        <v>-1339.7200000000012</v>
+      </c>
+      <c r="E86" t="s">
+        <v>401</v>
+      </c>
+      <c r="H86">
+        <f>H73+B86</f>
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>20200510</v>
+      </c>
+      <c r="B87">
+        <v>89.5</v>
+      </c>
+      <c r="C87">
+        <f>SUM($B$27:B87)</f>
+        <v>21429.22</v>
+      </c>
+      <c r="D87">
+        <f>收入!F64</f>
+        <v>-1429.2200000000012</v>
+      </c>
+      <c r="E87" t="s">
+        <v>383</v>
+      </c>
+      <c r="G87">
+        <f>G84+B87</f>
+        <v>3397.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>20200510</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <f>SUM($B$27:B88)</f>
+        <v>21439.22</v>
+      </c>
+      <c r="D88">
+        <f>收入!F65</f>
+        <v>-1439.2200000000012</v>
+      </c>
+      <c r="E88" t="s">
+        <v>385</v>
+      </c>
+      <c r="G88">
+        <f>B88+G87</f>
+        <v>3407.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>20200511</v>
+      </c>
+      <c r="B89">
+        <v>190</v>
+      </c>
+      <c r="C89">
+        <f>SUM($B$27:B89)</f>
+        <v>21629.22</v>
+      </c>
+      <c r="D89">
+        <f>收入!F66</f>
+        <v>-1629.2200000000012</v>
+      </c>
+      <c r="E89" t="s">
+        <v>386</v>
+      </c>
+      <c r="G89">
+        <f t="shared" ref="G89:G90" si="0">B89+G88</f>
+        <v>3597.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>20200511</v>
+      </c>
+      <c r="B90">
+        <v>75</v>
+      </c>
+      <c r="C90">
+        <f>SUM($B$27:B90)</f>
+        <v>21704.22</v>
+      </c>
+      <c r="D90">
+        <f>收入!F67</f>
+        <v>-1704.2200000000012</v>
+      </c>
+      <c r="E90" t="s">
+        <v>387</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="0"/>
+        <v>3672.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>20200511</v>
+      </c>
+      <c r="B91">
+        <v>-3</v>
+      </c>
+      <c r="C91">
+        <f>SUM($B$27:B91)</f>
+        <v>21701.22</v>
+      </c>
+      <c r="D91">
+        <f>收入!F68</f>
+        <v>-1698.2200000000012</v>
+      </c>
+      <c r="E91" t="s">
+        <v>402</v>
+      </c>
+      <c r="H91">
+        <f>H86+B91</f>
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>20200512</v>
+      </c>
+      <c r="B92">
+        <v>50.62</v>
+      </c>
+      <c r="C92">
+        <f>SUM($B$27:B92)</f>
+        <v>21751.84</v>
+      </c>
+      <c r="D92">
+        <f>收入!F69</f>
+        <v>-1748.8400000000001</v>
+      </c>
+      <c r="E92" t="s">
+        <v>403</v>
+      </c>
+      <c r="H92">
+        <f>H91+B92</f>
+        <v>1984.62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>20200515</v>
+      </c>
+      <c r="B93">
+        <v>98</v>
+      </c>
+      <c r="C93">
+        <f>SUM($B$27:B93)</f>
+        <v>21849.84</v>
+      </c>
+      <c r="D93">
+        <f>收入!F70</f>
+        <v>-1846.8400000000001</v>
+      </c>
+      <c r="E93" t="s">
+        <v>404</v>
+      </c>
+      <c r="H93">
+        <f>H92+B93</f>
+        <v>2082.62</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>20200515</v>
+      </c>
+      <c r="B94">
+        <v>150</v>
+      </c>
+      <c r="C94">
+        <f>SUM($B$27:B94)</f>
+        <v>21999.84</v>
+      </c>
+      <c r="D94">
+        <f>收入!F71</f>
+        <v>-1996.8400000000001</v>
+      </c>
+      <c r="E94" t="s">
+        <v>406</v>
+      </c>
+      <c r="G94">
+        <f>G90+B94</f>
+        <v>3822.5</v>
       </c>
     </row>
   </sheetData>
@@ -4380,13 +7115,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4398,13 +7133,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="58" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
       <c r="H1" s="33"/>
@@ -4432,6 +7167,12 @@
       <c r="E2" s="32" t="s">
         <v>240</v>
       </c>
+      <c r="F2" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3">
@@ -4485,6 +7226,11 @@
       <c r="E7" s="34">
         <f>SUM(E3:E6)</f>
         <v>11850</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>202005</v>
       </c>
     </row>
   </sheetData>
@@ -4499,18 +7245,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -4522,6 +7271,24 @@
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>20200510</v>
+      </c>
+      <c r="B2">
+        <v>6000</v>
+      </c>
+      <c r="C2">
+        <f>SUM($B$2:B2)</f>
+        <v>6000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -4532,13 +7299,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4547,7 +7314,7 @@
     <col min="4" max="4" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -4560,8 +7327,11 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="49" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>20200401</v>
       </c>
@@ -4573,10 +7343,13 @@
         <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>275</v>
+      </c>
+      <c r="E2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>20200401</v>
       </c>
@@ -4588,10 +7361,13 @@
         <v>229</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>276</v>
+      </c>
+      <c r="E3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>20200402</v>
       </c>
@@ -4603,10 +7379,13 @@
         <v>614</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>277</v>
+      </c>
+      <c r="E4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>20200402</v>
       </c>
@@ -4618,10 +7397,13 @@
         <v>734</v>
       </c>
       <c r="D5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>278</v>
+      </c>
+      <c r="E5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>20200411</v>
       </c>
@@ -4633,10 +7415,13 @@
         <v>827</v>
       </c>
       <c r="D6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>279</v>
+      </c>
+      <c r="E6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>20200420</v>
       </c>
@@ -4648,10 +7433,13 @@
         <v>899</v>
       </c>
       <c r="D7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>280</v>
+      </c>
+      <c r="E7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>20200420</v>
       </c>
@@ -4663,10 +7451,13 @@
         <v>1027</v>
       </c>
       <c r="D8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>281</v>
+      </c>
+      <c r="E8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>20200420</v>
       </c>
@@ -4678,10 +7469,13 @@
         <v>1209</v>
       </c>
       <c r="D9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>282</v>
+      </c>
+      <c r="E9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>20200424</v>
       </c>
@@ -4693,10 +7487,13 @@
         <v>1399</v>
       </c>
       <c r="D10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>283</v>
+      </c>
+      <c r="E10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>20200424</v>
       </c>
@@ -4708,61 +7505,337 @@
         <v>1418</v>
       </c>
       <c r="D11" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>301</v>
+      </c>
+      <c r="E11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>20200506</v>
+      </c>
+      <c r="B12">
+        <v>60</v>
+      </c>
       <c r="C12">
         <f>SUM($B$2:B12)</f>
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>1478</v>
+      </c>
+      <c r="D12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>20200506</v>
+      </c>
+      <c r="B13">
+        <v>1600</v>
+      </c>
       <c r="C13">
         <f>SUM($B$2:B13)</f>
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>3078</v>
+      </c>
+      <c r="D13" t="s">
+        <v>312</v>
+      </c>
+      <c r="E13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>20200506</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
       <c r="C14">
         <f>SUM($B$2:B14)</f>
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="C15">
+        <v>3086</v>
+      </c>
+      <c r="D14" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>20200507</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="C15" s="45">
         <f>SUM($B$2:B15)</f>
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="C16">
-        <f>SUM($B$2:B16)</f>
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
+        <v>3136</v>
+      </c>
+      <c r="D15" t="s">
+        <v>335</v>
+      </c>
+      <c r="E15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>20200508</v>
+      </c>
+      <c r="B16">
+        <v>18</v>
+      </c>
+      <c r="C16" s="45">
+        <f>SUM($B$16:B16)</f>
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>354</v>
+      </c>
+      <c r="E16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>20200509</v>
+      </c>
+      <c r="B17">
+        <v>52</v>
+      </c>
       <c r="C17">
-        <f>SUM($B$2:B17)</f>
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
+        <f>SUM($B$17:B17)</f>
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>20200509</v>
+      </c>
+      <c r="B18">
+        <v>70</v>
+      </c>
       <c r="C18">
-        <f>SUM($B$2:B18)</f>
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
+        <f>SUM($B$17:B18)</f>
+        <v>122</v>
+      </c>
+      <c r="D18" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>20200509</v>
+      </c>
+      <c r="B19">
+        <v>55</v>
+      </c>
       <c r="C19">
-        <f>SUM($B$2:B19)</f>
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
+        <f>SUM($B$17:B19)</f>
+        <v>177</v>
+      </c>
+      <c r="D19" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>20200509</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
       <c r="C20">
-        <f>SUM($B$2:B20)</f>
-        <v>1418</v>
+        <f>SUM($B$17:B20)</f>
+        <v>197</v>
+      </c>
+      <c r="D20" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>20200509</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <f>SUM($B$17:B21)</f>
+        <v>199</v>
+      </c>
+      <c r="D21" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>20200509</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <f>SUM($B$17:B22)</f>
+        <v>211</v>
+      </c>
+      <c r="D22" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>20200509</v>
+      </c>
+      <c r="B23">
+        <v>152</v>
+      </c>
+      <c r="C23">
+        <f>SUM($B$17:B23)</f>
+        <v>363</v>
+      </c>
+      <c r="D23" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>20200509</v>
+      </c>
+      <c r="B24">
+        <v>224</v>
+      </c>
+      <c r="C24">
+        <f>SUM($B$17:B24)</f>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>20200509</v>
+      </c>
+      <c r="B25">
+        <v>185</v>
+      </c>
+      <c r="C25">
+        <f>SUM($B$17:B25)</f>
+        <v>772</v>
+      </c>
+      <c r="D25" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>20200509</v>
+      </c>
+      <c r="B26">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <f>SUM($B$17:B26)</f>
+        <v>808</v>
+      </c>
+      <c r="D26" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>20200510</v>
+      </c>
+      <c r="B27">
+        <v>2500</v>
+      </c>
+      <c r="C27">
+        <f>SUM($B$17:B27)</f>
+        <v>3308</v>
+      </c>
+      <c r="D27" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>20200510</v>
+      </c>
+      <c r="B28">
+        <v>89.5</v>
+      </c>
+      <c r="C28">
+        <f>SUM($B$17:B28)</f>
+        <v>3397.5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>20200510</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <f>SUM($B$17:B29)</f>
+        <v>3407.5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>20200511</v>
+      </c>
+      <c r="B30">
+        <v>190</v>
+      </c>
+      <c r="C30">
+        <f>SUM($B$17:B30)</f>
+        <v>3597.5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>20200511</v>
+      </c>
+      <c r="B31">
+        <v>75</v>
+      </c>
+      <c r="C31">
+        <f>SUM($B$17:B31)</f>
+        <v>3672.5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>20200515</v>
+      </c>
+      <c r="B32">
+        <v>150</v>
+      </c>
+      <c r="C32">
+        <f>SUM($B$17:B32)</f>
+        <v>3822.5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -4774,13 +7847,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P164"/>
+  <dimension ref="A1:P170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="H143" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="H155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D146" sqref="D146:D157"/>
+      <selection pane="bottomRight" activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4854,12 +7927,12 @@
         <f>SUM($B$2:B3)</f>
         <v>884</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
@@ -6048,18 +9121,18 @@
       <c r="O69" s="28"/>
     </row>
     <row r="70" spans="1:15" ht="35.25">
-      <c r="A70" s="55">
+      <c r="A70" s="61">
         <v>201912</v>
       </c>
-      <c r="B70" s="55"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="55"/>
-      <c r="J70" s="55"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="61"/>
+      <c r="H70" s="61"/>
+      <c r="I70" s="61"/>
+      <c r="J70" s="61"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="3" t="s">
@@ -6118,10 +9191,10 @@
         <f>SUM($B$72:B73)</f>
         <v>103</v>
       </c>
-      <c r="H73" s="52"/>
-      <c r="I73" s="52"/>
-      <c r="J73" s="52"/>
-      <c r="K73" s="52"/>
+      <c r="H73" s="58"/>
+      <c r="I73" s="58"/>
+      <c r="J73" s="58"/>
+      <c r="K73" s="58"/>
     </row>
     <row r="74" spans="1:15">
       <c r="A74">
@@ -6837,17 +9910,17 @@
       <c r="P116" s="30"/>
     </row>
     <row r="118" spans="1:16" ht="35.25">
-      <c r="A118" s="55" t="s">
+      <c r="A118" s="61" t="s">
         <v>246</v>
       </c>
-      <c r="B118" s="55"/>
-      <c r="C118" s="55"/>
-      <c r="D118" s="55"/>
-      <c r="E118" s="55"/>
-      <c r="F118" s="55"/>
-      <c r="G118" s="55"/>
-      <c r="H118" s="55"/>
-      <c r="I118" s="55"/>
+      <c r="B118" s="61"/>
+      <c r="C118" s="61"/>
+      <c r="D118" s="61"/>
+      <c r="E118" s="61"/>
+      <c r="F118" s="61"/>
+      <c r="G118" s="61"/>
+      <c r="H118" s="61"/>
+      <c r="I118" s="61"/>
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="27">
@@ -6920,14 +9993,14 @@
       <c r="K123" s="28"/>
     </row>
     <row r="125" spans="1:16" ht="33">
-      <c r="A125" s="56">
+      <c r="A125" s="62">
         <v>202003</v>
       </c>
-      <c r="B125" s="56"/>
-      <c r="C125" s="56"/>
-      <c r="D125" s="56"/>
-      <c r="E125" s="56"/>
-      <c r="F125" s="56"/>
+      <c r="B125" s="62"/>
+      <c r="C125" s="62"/>
+      <c r="D125" s="62"/>
+      <c r="E125" s="62"/>
+      <c r="F125" s="62"/>
     </row>
     <row r="126" spans="1:16">
       <c r="A126">
@@ -6975,10 +10048,10 @@
       </c>
     </row>
     <row r="131" spans="1:11" ht="25.5">
-      <c r="A131" s="54" t="s">
+      <c r="A131" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="B131" s="54"/>
+      <c r="B131" s="60"/>
       <c r="C131" s="31"/>
       <c r="D131" s="36">
         <f>E123+C128</f>
@@ -6993,12 +10066,12 @@
       <c r="K131" s="31"/>
     </row>
     <row r="133" spans="1:11" ht="33">
-      <c r="A133" s="53">
+      <c r="A133" s="59">
         <v>202004</v>
       </c>
-      <c r="B133" s="53"/>
-      <c r="C133" s="53"/>
-      <c r="D133" s="53"/>
+      <c r="B133" s="59"/>
+      <c r="C133" s="59"/>
+      <c r="D133" s="59"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134">
@@ -7107,7 +10180,7 @@
         <v>5033.3399999999992</v>
       </c>
       <c r="E141" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F141" s="31"/>
     </row>
@@ -7125,8 +10198,8 @@
       <c r="D142" t="s">
         <v>265</v>
       </c>
-      <c r="E142" s="48" t="s">
-        <v>272</v>
+      <c r="E142" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -7141,10 +10214,10 @@
         <v>78.64</v>
       </c>
       <c r="D143" t="s">
-        <v>271</v>
-      </c>
-      <c r="E143" s="48" t="s">
-        <v>272</v>
+        <v>270</v>
+      </c>
+      <c r="E143" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -7159,10 +10232,10 @@
         <v>141.69</v>
       </c>
       <c r="D144" t="s">
-        <v>274</v>
-      </c>
-      <c r="E144" s="48" t="s">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="E144" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -7172,15 +10245,15 @@
       <c r="B145">
         <v>18</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="45">
         <f>SUM($B$142:B145)</f>
         <v>159.69</v>
       </c>
       <c r="D145" t="s">
-        <v>275</v>
-      </c>
-      <c r="E145" s="48" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="E145" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -7195,7 +10268,10 @@
         <v>45</v>
       </c>
       <c r="D146" t="s">
-        <v>293</v>
+        <v>292</v>
+      </c>
+      <c r="E146" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -7210,7 +10286,10 @@
         <v>169</v>
       </c>
       <c r="D147" t="s">
-        <v>294</v>
+        <v>293</v>
+      </c>
+      <c r="E147" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -7225,7 +10304,10 @@
         <v>265</v>
       </c>
       <c r="D148" t="s">
-        <v>295</v>
+        <v>294</v>
+      </c>
+      <c r="E148" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -7240,7 +10322,10 @@
         <v>426.2</v>
       </c>
       <c r="D149" t="s">
-        <v>296</v>
+        <v>295</v>
+      </c>
+      <c r="E149" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -7255,7 +10340,10 @@
         <v>501.2</v>
       </c>
       <c r="D150" t="s">
-        <v>297</v>
+        <v>296</v>
+      </c>
+      <c r="E150" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -7270,7 +10358,10 @@
         <v>619.20000000000005</v>
       </c>
       <c r="D151" t="s">
-        <v>298</v>
+        <v>297</v>
+      </c>
+      <c r="E151" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -7285,7 +10376,10 @@
         <v>627.20000000000005</v>
       </c>
       <c r="D152" t="s">
-        <v>299</v>
+        <v>298</v>
+      </c>
+      <c r="E152" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -7300,7 +10394,10 @@
         <v>647.20000000000005</v>
       </c>
       <c r="D153" t="s">
-        <v>300</v>
+        <v>299</v>
+      </c>
+      <c r="E153" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -7315,7 +10412,10 @@
         <v>832.2</v>
       </c>
       <c r="D154" t="s">
-        <v>301</v>
+        <v>300</v>
+      </c>
+      <c r="E154" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -7330,7 +10430,10 @@
         <v>890.2</v>
       </c>
       <c r="D155" t="s">
-        <v>303</v>
+        <v>302</v>
+      </c>
+      <c r="E155" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -7345,7 +10448,10 @@
         <v>943.40000000000009</v>
       </c>
       <c r="D156" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="E156" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -7360,49 +10466,217 @@
         <v>1329.4</v>
       </c>
       <c r="D157" t="s">
-        <v>305</v>
+        <v>304</v>
+      </c>
+      <c r="E157" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="158" spans="1:5">
+      <c r="A158">
+        <v>20200507</v>
+      </c>
+      <c r="B158">
+        <v>20</v>
+      </c>
       <c r="C158">
         <f>SUM($B$146:B158)</f>
-        <v>1329.4</v>
+        <v>1349.4</v>
+      </c>
+      <c r="D158" t="s">
+        <v>309</v>
+      </c>
+      <c r="E158" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="159" spans="1:5">
+      <c r="A159">
+        <v>20200507</v>
+      </c>
+      <c r="B159">
+        <v>49.24</v>
+      </c>
       <c r="C159">
         <f>SUM($B$146:B159)</f>
-        <v>1329.4</v>
+        <v>1398.64</v>
+      </c>
+      <c r="D159" t="s">
+        <v>310</v>
+      </c>
+      <c r="E159" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="160" spans="1:5">
+      <c r="A160">
+        <v>20200507</v>
+      </c>
+      <c r="B160">
+        <v>309.14999999999998</v>
+      </c>
       <c r="C160">
         <f>SUM($B$146:B160)</f>
-        <v>1329.4</v>
-      </c>
-    </row>
-    <row r="161" spans="3:3">
-      <c r="C161">
+        <v>1707.79</v>
+      </c>
+      <c r="D160" t="s">
+        <v>311</v>
+      </c>
+      <c r="E160" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161">
+        <v>20200507</v>
+      </c>
+      <c r="B161">
+        <v>39.9</v>
+      </c>
+      <c r="C161" s="45">
         <f>SUM($B$146:B161)</f>
-        <v>1329.4</v>
-      </c>
-    </row>
-    <row r="162" spans="3:3">
+        <v>1747.69</v>
+      </c>
+      <c r="D161" t="s">
+        <v>330</v>
+      </c>
+      <c r="E161" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162">
+        <v>20200508</v>
+      </c>
+      <c r="B162">
+        <v>286</v>
+      </c>
       <c r="C162">
-        <f>SUM($B$146:B162)</f>
-        <v>1329.4</v>
-      </c>
-    </row>
-    <row r="163" spans="3:3">
+        <f>SUM($B$162:B162)</f>
+        <v>286</v>
+      </c>
+      <c r="D162" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163">
+        <v>20200508</v>
+      </c>
+      <c r="B163">
+        <v>156</v>
+      </c>
       <c r="C163">
-        <f>SUM($B$146:B163)</f>
-        <v>1329.4</v>
-      </c>
-    </row>
-    <row r="164" spans="3:3">
+        <f>SUM($B$162:B163)</f>
+        <v>442</v>
+      </c>
+      <c r="D163" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164">
+        <v>20200508</v>
+      </c>
+      <c r="B164">
+        <v>-72</v>
+      </c>
       <c r="C164">
-        <f>SUM($B$146:B164)</f>
-        <v>1329.4</v>
+        <f>SUM($B$162:B164)</f>
+        <v>370</v>
+      </c>
+      <c r="D164" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165">
+        <v>20200508</v>
+      </c>
+      <c r="B165">
+        <v>-58</v>
+      </c>
+      <c r="C165" s="27">
+        <f>SUM($B$162:B165)</f>
+        <v>312</v>
+      </c>
+      <c r="D165" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166">
+        <v>20200508</v>
+      </c>
+      <c r="B166">
+        <v>125</v>
+      </c>
+      <c r="C166" s="27">
+        <f>SUM($B$162:B166)</f>
+        <v>437</v>
+      </c>
+      <c r="D166" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167">
+        <v>20200510</v>
+      </c>
+      <c r="B167">
+        <v>1500</v>
+      </c>
+      <c r="C167" s="27">
+        <f>SUM($B$162:B167)</f>
+        <v>1937</v>
+      </c>
+      <c r="D167" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168">
+        <v>20200511</v>
+      </c>
+      <c r="B168">
+        <v>-3</v>
+      </c>
+      <c r="C168" s="27">
+        <f>SUM($B$162:B168)</f>
+        <v>1934</v>
+      </c>
+      <c r="D168" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169">
+        <v>20200512</v>
+      </c>
+      <c r="B169">
+        <v>50.62</v>
+      </c>
+      <c r="C169" s="27">
+        <f>SUM($B$162:B169)</f>
+        <v>1984.62</v>
+      </c>
+      <c r="D169" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170">
+        <v>20200515</v>
+      </c>
+      <c r="B170">
+        <v>98</v>
+      </c>
+      <c r="C170" s="27">
+        <f>SUM($B$162:B170)</f>
+        <v>2082.62</v>
+      </c>
+      <c r="D170" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -7962,10 +11236,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8473,7 +11747,9 @@
         <f t="shared" si="1"/>
         <v>319.45</v>
       </c>
-      <c r="U11" s="14"/>
+      <c r="U11" s="14">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="13"/>
@@ -8515,7 +11791,9 @@
         <f t="shared" si="1"/>
         <v>309.14999999999998</v>
       </c>
-      <c r="U12" s="14"/>
+      <c r="U12" s="14">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="13"/>
@@ -8596,8 +11874,8 @@
         <v>20200707</v>
       </c>
       <c r="T14" s="9">
-        <f t="shared" si="1"/>
-        <v>309.14999999999998</v>
+        <f>C14+I14+O12+C23</f>
+        <v>459</v>
       </c>
       <c r="U14" s="14"/>
     </row>
@@ -8638,8 +11916,8 @@
         <v>20200807</v>
       </c>
       <c r="T15" s="9">
-        <f t="shared" si="1"/>
-        <v>17219.45</v>
+        <f>C15+I15+O13+C24</f>
+        <v>17345</v>
       </c>
       <c r="U15" s="14"/>
     </row>
@@ -8665,8 +11943,8 @@
         <v>20200907</v>
       </c>
       <c r="T16" s="9">
-        <f t="shared" si="1"/>
-        <v>83.7</v>
+        <f>O14+C25</f>
+        <v>209.25</v>
       </c>
       <c r="U16" s="14"/>
     </row>
@@ -8708,7 +11986,8 @@
         <v>20201007</v>
       </c>
       <c r="T17" s="9">
-        <v>6081</v>
+        <f>O15+C26</f>
+        <v>6206.5</v>
       </c>
       <c r="U17" s="14"/>
     </row>
@@ -8732,10 +12011,13 @@
         <f t="shared" si="4"/>
         <v>20201107</v>
       </c>
-      <c r="T18" s="9"/>
+      <c r="T18" s="9">
+        <f>C27</f>
+        <v>125.55</v>
+      </c>
       <c r="U18" s="14"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" ht="15" thickBot="1">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -8755,15 +12037,28 @@
         <f t="shared" si="4"/>
         <v>20201207</v>
       </c>
-      <c r="T19" s="9"/>
+      <c r="T19" s="9">
+        <f>C28</f>
+        <v>9121.5</v>
+      </c>
       <c r="U19" s="14"/>
     </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+    <row r="20" spans="1:21" ht="15" thickTop="1">
+      <c r="A20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -8779,11 +12074,19 @@
       <c r="U20" s="14"/>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="13">
+        <v>20200531</v>
+      </c>
+      <c r="B21" s="9">
+        <v>9000</v>
+      </c>
+      <c r="C21" s="9">
+        <v>6</v>
+      </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="E21" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -8799,11 +12102,17 @@
       <c r="U21" s="14"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="14"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -8819,11 +12128,15 @@
       <c r="U22" s="14"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="9">
+        <v>20200707</v>
+      </c>
+      <c r="C23" s="9">
+        <v>149.85</v>
+      </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="E23" s="14"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -8839,11 +12152,16 @@
       <c r="U23" s="14"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="9">
+        <f>B23+100</f>
+        <v>20200807</v>
+      </c>
+      <c r="C24" s="9">
+        <v>125.55</v>
+      </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="E24" s="14"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -8859,11 +12177,16 @@
       <c r="U24" s="14"/>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="9">
+        <f t="shared" ref="B25:B28" si="5">B24+100</f>
+        <v>20200907</v>
+      </c>
+      <c r="C25" s="18">
+        <v>125.55</v>
+      </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="E25" s="14"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -8878,17 +12201,22 @@
         <v>128</v>
       </c>
       <c r="T25" s="9">
-        <f>B2+H2+N2</f>
-        <v>22900</v>
+        <f>B2+H2+N2+B21</f>
+        <v>31900</v>
       </c>
       <c r="U25" s="14"/>
     </row>
     <row r="26" spans="1:21" ht="15" thickBot="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="9">
+        <f t="shared" si="5"/>
+        <v>20201007</v>
+      </c>
+      <c r="C26" s="9">
+        <v>125.5</v>
+      </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="E26" s="14"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -8903,17 +12231,22 @@
         <v>103</v>
       </c>
       <c r="T26" s="16">
-        <f>C17+I17+O17</f>
-        <v>3654.82</v>
+        <f>C17+I17+O17+C30</f>
+        <v>4428.32</v>
       </c>
       <c r="U26" s="17"/>
     </row>
     <row r="27" spans="1:21" ht="15" thickTop="1">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="9">
+        <f t="shared" si="5"/>
+        <v>20201107</v>
+      </c>
+      <c r="C27" s="18">
+        <v>125.55</v>
+      </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="E27" s="14"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -8926,11 +12259,16 @@
       <c r="Q27" s="9"/>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="9">
+        <f t="shared" si="5"/>
+        <v>20201207</v>
+      </c>
+      <c r="C28" s="18">
+        <v>9121.5</v>
+      </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="E28" s="14"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -8943,11 +12281,11 @@
       <c r="Q28" s="9"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="9"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="E29" s="14"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -8960,11 +12298,16 @@
       <c r="Q29" s="9"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="9">
+        <f>C23+C24+C25+C26+C27+121.5</f>
+        <v>773.5</v>
+      </c>
       <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="E30" s="14"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -8977,11 +12320,11 @@
       <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="9"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="E31" s="14"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -8994,11 +12337,11 @@
       <c r="Q31" s="9"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="9"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="E32" s="14"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -9011,11 +12354,11 @@
       <c r="Q32" s="9"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="9"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="E33" s="14"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -9028,11 +12371,11 @@
       <c r="Q33" s="9"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="9"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="E34" s="14"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -9044,6 +12387,18 @@
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
     </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="13"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="13"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9053,21 +12408,24 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>270</v>
+        <v>391</v>
+      </c>
+      <c r="B1" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="51">
+      <c r="A2" s="57">
         <v>640</v>
       </c>
       <c r="B2">
@@ -9075,80 +12433,104 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="51"/>
+      <c r="A3" s="57"/>
       <c r="B3">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="51"/>
+      <c r="A4" s="57"/>
       <c r="B4">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="51"/>
+      <c r="A5" s="57"/>
       <c r="B5">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="51"/>
+      <c r="A6" s="57"/>
       <c r="B6">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="51"/>
+      <c r="A7" s="57"/>
       <c r="B7">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="51"/>
+      <c r="A8" s="57"/>
       <c r="B8">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="51"/>
+      <c r="A9" s="57"/>
       <c r="B9">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="51"/>
+      <c r="A10" s="57"/>
       <c r="B10">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="51"/>
+      <c r="A11" s="57"/>
       <c r="B11">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="51"/>
+      <c r="A12" s="57"/>
       <c r="B12">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="51"/>
-      <c r="B13">
+      <c r="A13" s="57"/>
+      <c r="B13" s="51" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="57"/>
+      <c r="B14">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="51"/>
-      <c r="B14">
+    <row r="15" spans="1:2">
+      <c r="A15" s="57"/>
+      <c r="B15">
         <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>307</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A2:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
